--- a/VT_REG2_PRI_V12.xlsx
+++ b/VT_REG2_PRI_V12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\DemoS_ADV_Stuttgart061118\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F84EC17-E0FC-4081-8787-B7C40AE53DF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25004755-0BD8-4547-922D-88EDD6B06A64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="570" windowWidth="25080" windowHeight="15030" tabRatio="901"/>
+    <workbookView xWindow="7500" yWindow="1335" windowWidth="18135" windowHeight="11025" tabRatio="901" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB2" sheetId="133" r:id="rId1"/>
@@ -47,14 +47,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -168,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1" shapeId="0">
+    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -194,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -267,7 +267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -320,7 +320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -353,7 +353,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="2" shapeId="0">
+    <comment ref="G8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -400,7 +400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O8" authorId="2" shapeId="0">
+    <comment ref="O8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -493,7 +493,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P8" authorId="1" shapeId="0">
+    <comment ref="P8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -518,7 +518,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="2" shapeId="0">
+    <comment ref="Q8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -581,7 +581,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="2" shapeId="0">
+    <comment ref="I9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -829,14 +829,14 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -950,7 +950,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1" shapeId="0">
+    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -976,7 +976,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1049,7 +1049,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1102,7 +1102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1135,7 +1135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="2" shapeId="0">
+    <comment ref="G8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1182,7 +1182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O8" authorId="2" shapeId="0">
+    <comment ref="O8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1275,7 +1275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P8" authorId="1" shapeId="0">
+    <comment ref="P8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1300,7 +1300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="2" shapeId="0">
+    <comment ref="Q8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1363,7 +1363,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="2" shapeId="0">
+    <comment ref="I9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1611,14 +1611,14 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1732,7 +1732,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1" shapeId="0">
+    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1758,7 +1758,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1831,7 +1831,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1884,7 +1884,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1917,7 +1917,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="2" shapeId="0">
+    <comment ref="G8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1964,7 +1964,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O8" authorId="2" shapeId="0">
+    <comment ref="O8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
           <rPr>
@@ -2057,7 +2057,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P8" authorId="1" shapeId="0">
+    <comment ref="P8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
       <text>
         <r>
           <rPr>
@@ -2082,7 +2082,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="2" shapeId="0">
+    <comment ref="Q8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
       <text>
         <r>
           <rPr>
@@ -2145,7 +2145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="2" shapeId="0">
+    <comment ref="I9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -2393,14 +2393,14 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -2514,7 +2514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="1" shapeId="0">
+    <comment ref="M3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -2540,7 +2540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="2" shapeId="0">
+    <comment ref="N3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -2613,7 +2613,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -2666,7 +2666,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -2699,7 +2699,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="2" shapeId="0">
+    <comment ref="F11" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -2746,7 +2746,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N11" authorId="2" shapeId="0">
+    <comment ref="N11" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
       <text>
         <r>
           <rPr>
@@ -2839,7 +2839,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O11" authorId="1" shapeId="0">
+    <comment ref="O11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
       <text>
         <r>
           <rPr>
@@ -2864,7 +2864,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P11" authorId="2" shapeId="0">
+    <comment ref="P11" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
       <text>
         <r>
           <rPr>
@@ -2927,7 +2927,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H12" authorId="2" shapeId="0">
+    <comment ref="H12" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -3175,14 +3175,14 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -3296,7 +3296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="1" shapeId="0">
+    <comment ref="M3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -3322,7 +3322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="2" shapeId="0">
+    <comment ref="N3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -3395,7 +3395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -3448,7 +3448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000005000000}">
       <text>
         <r>
           <rPr>
@@ -3481,7 +3481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="2" shapeId="0">
+    <comment ref="F8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000006000000}">
       <text>
         <r>
           <rPr>
@@ -3528,7 +3528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N8" authorId="2" shapeId="0">
+    <comment ref="N8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000007000000}">
       <text>
         <r>
           <rPr>
@@ -3621,7 +3621,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O8" authorId="1" shapeId="0">
+    <comment ref="O8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000008000000}">
       <text>
         <r>
           <rPr>
@@ -3646,7 +3646,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P8" authorId="2" shapeId="0">
+    <comment ref="P8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000009000000}">
       <text>
         <r>
           <rPr>
@@ -3709,7 +3709,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H9" authorId="2" shapeId="0">
+    <comment ref="H9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -3957,14 +3957,14 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -4078,7 +4078,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="1" shapeId="0">
+    <comment ref="M3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -4104,7 +4104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="2" shapeId="0">
+    <comment ref="N3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
@@ -4177,7 +4177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
       <text>
         <r>
           <rPr>
@@ -4230,7 +4230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000005000000}">
       <text>
         <r>
           <rPr>
@@ -4263,7 +4263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="2" shapeId="0">
+    <comment ref="F14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000006000000}">
       <text>
         <r>
           <rPr>
@@ -4310,7 +4310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N14" authorId="2" shapeId="0">
+    <comment ref="N14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000007000000}">
       <text>
         <r>
           <rPr>
@@ -4403,7 +4403,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O14" authorId="1" shapeId="0">
+    <comment ref="O14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000008000000}">
       <text>
         <r>
           <rPr>
@@ -4428,7 +4428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P14" authorId="2" shapeId="0">
+    <comment ref="P14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000009000000}">
       <text>
         <r>
           <rPr>
@@ -4491,7 +4491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="2" shapeId="0">
+    <comment ref="H15" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -4739,14 +4739,14 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -4860,7 +4860,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="1" shapeId="0">
+    <comment ref="M3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
@@ -4886,7 +4886,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="2" shapeId="0">
+    <comment ref="N3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
       <text>
         <r>
           <rPr>
@@ -4959,7 +4959,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
       <text>
         <r>
           <rPr>
@@ -5012,7 +5012,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000005000000}">
       <text>
         <r>
           <rPr>
@@ -5045,7 +5045,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="2" shapeId="0">
+    <comment ref="F12" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000006000000}">
       <text>
         <r>
           <rPr>
@@ -5092,7 +5092,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N12" authorId="2" shapeId="0">
+    <comment ref="N12" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000007000000}">
       <text>
         <r>
           <rPr>
@@ -5185,7 +5185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O12" authorId="1" shapeId="0">
+    <comment ref="O12" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000008000000}">
       <text>
         <r>
           <rPr>
@@ -5210,7 +5210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P12" authorId="2" shapeId="0">
+    <comment ref="P12" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000009000000}">
       <text>
         <r>
           <rPr>
@@ -5273,7 +5273,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H13" authorId="2" shapeId="0">
+    <comment ref="H13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -5521,14 +5521,14 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
@@ -5642,7 +5642,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="1" shapeId="0">
+    <comment ref="O3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
       <text>
         <r>
           <rPr>
@@ -5668,7 +5668,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000003000000}">
       <text>
         <r>
           <rPr>
@@ -5741,7 +5741,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000004000000}">
       <text>
         <r>
           <rPr>
@@ -5794,7 +5794,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000005000000}">
       <text>
         <r>
           <rPr>
@@ -5827,7 +5827,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P9" authorId="2" shapeId="0">
+    <comment ref="P9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000006000000}">
       <text>
         <r>
           <rPr>
@@ -5920,7 +5920,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q9" authorId="1" shapeId="0">
+    <comment ref="Q9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0900-000007000000}">
       <text>
         <r>
           <rPr>
@@ -5945,7 +5945,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R9" authorId="2" shapeId="0">
+    <comment ref="R9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000008000000}">
       <text>
         <r>
           <rPr>
@@ -6008,7 +6008,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J10" authorId="2" shapeId="0">
+    <comment ref="J10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000009000000}">
       <text>
         <r>
           <rPr>
@@ -6256,7 +6256,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="152">
   <si>
     <t>CommName</t>
   </si>
@@ -6717,13 +6717,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="187" formatCode="General_)"/>
-    <numFmt numFmtId="195" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="General_)"/>
+    <numFmt numFmtId="166" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -6753,32 +6753,6 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -7282,34 +7256,34 @@
   </borders>
   <cellStyleXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="134">
@@ -7329,19 +7303,19 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7350,21 +7324,21 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="6" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="6" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="7" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="7" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -7377,12 +7351,12 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="11" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="11" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="11" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7394,43 +7368,43 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="11" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="24" fillId="9" borderId="0" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="20" fillId="9" borderId="0" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="187" fontId="22" fillId="7" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="18" fillId="7" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="7" borderId="16" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="7" borderId="16" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="7" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="7" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="7" borderId="18" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="7" borderId="18" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="22" fillId="7" borderId="19" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="7" borderId="19" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -7445,7 +7419,7 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="11" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="14" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7458,18 +7432,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="11" applyFill="1"/>
-    <xf numFmtId="187" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="187" fontId="13" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="187" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -7480,75 +7454,75 @@
     <xf numFmtId="1" fontId="4" fillId="15" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="24" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="195" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="24" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="5" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="4" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="4" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="11" applyNumberFormat="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="11" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -7558,31 +7532,31 @@
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
     <cellStyle name="Accent2" xfId="4" builtinId="33"/>
     <cellStyle name="Calculation" xfId="5" builtinId="22"/>
-    <cellStyle name="Comma 2" xfId="6"/>
+    <cellStyle name="Comma 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Good" xfId="7" builtinId="26"/>
     <cellStyle name="Input" xfId="8" builtinId="20"/>
-    <cellStyle name="Migliaia_tab emissioni" xfId="9"/>
+    <cellStyle name="Migliaia_tab emissioni" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Neutral" xfId="10" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="11"/>
-    <cellStyle name="Normal 2" xfId="12"/>
-    <cellStyle name="Normal 4" xfId="13"/>
-    <cellStyle name="Normal 4 2" xfId="14"/>
-    <cellStyle name="Normal 8" xfId="15"/>
-    <cellStyle name="Normal 9 2" xfId="16"/>
-    <cellStyle name="Normale_B2020" xfId="17"/>
+    <cellStyle name="Normal 10" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 4" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 8" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 9 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normale_B2020" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Percent" xfId="18" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="19"/>
-    <cellStyle name="Percent 3" xfId="20"/>
-    <cellStyle name="Percent 3 2" xfId="21"/>
-    <cellStyle name="Percent 3 3" xfId="22"/>
-    <cellStyle name="Percent 4" xfId="23"/>
-    <cellStyle name="Percent 4 2" xfId="24"/>
-    <cellStyle name="Percent 4 3" xfId="25"/>
-    <cellStyle name="Percent 5" xfId="26"/>
-    <cellStyle name="Percent 6" xfId="27"/>
-    <cellStyle name="Percent 7" xfId="28"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="29"/>
+    <cellStyle name="Percent 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Percent 3" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Percent 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Percent 3 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Percent 4" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Percent 4 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Percent 4 3" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Percent 5" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Percent 6" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Percent 7" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="29" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -11100,10 +11074,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -12185,7 +12159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:R24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -12756,7 +12730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B3:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12938,7 +12912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:Q44"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
@@ -13022,7 +12996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:R32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -13749,7 +13723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:R34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -14480,7 +14454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:W34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -15150,7 +15124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:Q40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -15889,7 +15863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:Q38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -16494,7 +16468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:V36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -17592,11 +17566,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:V22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17818,13 +17792,9 @@
       <c r="Q10" s="35"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="D11" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="H11" s="123" t="s">
-        <v>15</v>
-      </c>
+      <c r="H11" s="123"/>
       <c r="I11" s="123"/>
       <c r="J11" s="129"/>
       <c r="K11" s="129"/>

--- a/VT_REG2_PRI_V12.xlsx
+++ b/VT_REG2_PRI_V12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25004755-0BD8-4547-922D-88EDD6B06A64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC0FB45-7924-4FB5-82FC-4953D6999225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="1335" windowWidth="18135" windowHeight="11025" tabRatio="901" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4815" yWindow="1410" windowWidth="20040" windowHeight="14190" tabRatio="901" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB2" sheetId="133" r:id="rId1"/>
@@ -6256,7 +6256,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="145">
   <si>
     <t>CommName</t>
   </si>
@@ -6684,27 +6684,6 @@
     <t>REG2</t>
   </si>
   <si>
-    <t>~COMAGG</t>
-  </si>
-  <si>
-    <t>AGRCO2</t>
-  </si>
-  <si>
-    <t>COMCO2</t>
-  </si>
-  <si>
-    <t>RSDCO2</t>
-  </si>
-  <si>
-    <t>ELCCO2</t>
-  </si>
-  <si>
-    <t>TRACO2</t>
-  </si>
-  <si>
-    <t>INDCO2</t>
-  </si>
-  <si>
     <t>TOTCO2</t>
   </si>
   <si>
@@ -6916,7 +6895,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7004,12 +6983,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7286,7 +7259,7 @@
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7357,7 +7330,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="11" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -7474,14 +7446,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11110,63 +11074,63 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="6"/>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="K2" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="L2" s="54" t="s">
+      <c r="L2" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="54" t="s">
+      <c r="M2" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="N2" s="54" t="s">
+      <c r="N2" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="54" t="s">
+      <c r="O2" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="P2" s="54" t="s">
+      <c r="P2" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="Q2" s="54" t="s">
+      <c r="Q2" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="R2" s="54" t="s">
+      <c r="R2" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="S2" s="54" t="s">
+      <c r="S2" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="54" t="s">
+      <c r="T2" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="U2" s="54" t="s">
+      <c r="U2" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="V2" s="54"/>
+      <c r="V2" s="53"/>
       <c r="X2" s="7"/>
-      <c r="Y2" s="69" t="s">
+      <c r="Y2" s="68" t="s">
         <v>123</v>
       </c>
       <c r="Z2" s="15" t="s">
@@ -11177,423 +11141,423 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="100" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="55" t="s">
+      <c r="H3" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="55" t="s">
+      <c r="I3" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="J3" s="55" t="s">
+      <c r="J3" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="L3" s="55" t="s">
+      <c r="L3" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="M3" s="55" t="s">
+      <c r="M3" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="N3" s="55" t="s">
+      <c r="N3" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="55" t="s">
+      <c r="O3" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="P3" s="55" t="s">
+      <c r="P3" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="Q3" s="55" t="s">
+      <c r="Q3" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="R3" s="55" t="s">
+      <c r="R3" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="S3" s="55" t="s">
+      <c r="S3" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="T3" s="55" t="s">
+      <c r="T3" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="U3" s="55" t="s">
+      <c r="U3" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="V3" s="55" t="s">
+      <c r="V3" s="54" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="91"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="90"/>
     </row>
     <row r="5" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="56">
         <f>[2]EB2!D5</f>
         <v>2834.4252999999999</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="56">
         <f>[2]EB2!E5</f>
         <v>4739.6981999999998</v>
       </c>
-      <c r="F5" s="57">
+      <c r="F5" s="56">
         <f>[2]EB2!F5</f>
         <v>2686.252</v>
       </c>
-      <c r="G5" s="57">
+      <c r="G5" s="56">
         <f>[2]EB2!G5</f>
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="H5" s="57">
+      <c r="H5" s="56">
         <f>[2]EB2!H5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="57">
+      <c r="I5" s="56">
         <f>[2]EB2!I5</f>
         <v>0</v>
       </c>
-      <c r="J5" s="57">
+      <c r="J5" s="56">
         <f>[2]EB2!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="57">
+      <c r="K5" s="56">
         <f>[2]EB2!K5</f>
         <v>0</v>
       </c>
-      <c r="L5" s="57">
+      <c r="L5" s="56">
         <f>[2]EB2!L5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="57">
+      <c r="M5" s="56">
         <f>[2]EB2!M5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="57">
+      <c r="N5" s="56">
         <f>[2]EB2!N5</f>
         <v>5445</v>
       </c>
-      <c r="O5" s="57">
+      <c r="O5" s="56">
         <f>[2]EB2!O5</f>
         <v>753.98999999999978</v>
       </c>
-      <c r="P5" s="57">
+      <c r="P5" s="56">
         <f>[2]EB2!P5</f>
         <v>502.66000000000008</v>
       </c>
-      <c r="Q5" s="57">
+      <c r="Q5" s="56">
         <f>[2]EB2!Q5</f>
         <v>490.09350000000001</v>
       </c>
-      <c r="R5" s="57">
+      <c r="R5" s="56">
         <f>[2]EB2!R5</f>
         <v>125.66500000000008</v>
       </c>
-      <c r="S5" s="58">
+      <c r="S5" s="57">
         <f>[2]EB2!S5</f>
         <v>0</v>
       </c>
-      <c r="T5" s="58">
+      <c r="T5" s="57">
         <f>[2]EB2!T5</f>
         <v>0</v>
       </c>
-      <c r="U5" s="57">
+      <c r="U5" s="56">
         <f>[2]EB2!U5</f>
         <v>0</v>
       </c>
-      <c r="V5" s="93">
+      <c r="V5" s="92">
         <f>SUM(D5:U5)</f>
         <v>17577.847999999998</v>
       </c>
       <c r="X5" s="9"/>
     </row>
     <row r="6" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D6" s="56">
         <f>[2]EB2!D6</f>
         <v>2261.9348499999996</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="56">
         <f>[2]EB2!E6</f>
         <v>7975.0373999999993</v>
       </c>
-      <c r="F6" s="57">
+      <c r="F6" s="56">
         <f>[2]EB2!F6</f>
         <v>13824.328000000001</v>
       </c>
-      <c r="G6" s="57">
+      <c r="G6" s="56">
         <f>[2]EB2!G6</f>
         <v>2204.8490000000002</v>
       </c>
-      <c r="H6" s="57">
+      <c r="H6" s="56">
         <f>[2]EB2!H6</f>
         <v>604.98850000000004</v>
       </c>
-      <c r="I6" s="57">
+      <c r="I6" s="56">
         <f>[2]EB2!I6</f>
         <v>326.12950000000001</v>
       </c>
-      <c r="J6" s="57">
+      <c r="J6" s="56">
         <f>[2]EB2!J6</f>
         <v>660</v>
       </c>
-      <c r="K6" s="57">
+      <c r="K6" s="56">
         <f>[2]EB2!K6</f>
         <v>683.1</v>
       </c>
-      <c r="L6" s="57">
+      <c r="L6" s="56">
         <f>[2]EB2!L6</f>
         <v>1079.56</v>
       </c>
-      <c r="M6" s="57">
+      <c r="M6" s="56">
         <f>[2]EB2!M6</f>
         <v>597.03499999999997</v>
       </c>
-      <c r="N6" s="57">
+      <c r="N6" s="56">
         <f>[2]EB2!N6</f>
         <v>0</v>
       </c>
-      <c r="O6" s="57">
+      <c r="O6" s="56">
         <f>[2]EB2!O6</f>
         <v>28.254750000000001</v>
       </c>
-      <c r="P6" s="57">
+      <c r="P6" s="56">
         <f>[2]EB2!P6</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="57">
+      <c r="Q6" s="56">
         <f>[2]EB2!Q6</f>
         <v>0</v>
       </c>
-      <c r="R6" s="57">
+      <c r="R6" s="56">
         <f>[2]EB2!R6</f>
         <v>0</v>
       </c>
-      <c r="S6" s="58">
+      <c r="S6" s="57">
         <f>[2]EB2!S6</f>
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="T6" s="58">
+      <c r="T6" s="57">
         <f>[2]EB2!T6</f>
         <v>7.6499999999999999E-2</v>
       </c>
-      <c r="U6" s="57">
+      <c r="U6" s="56">
         <f>[2]EB2!U6</f>
         <v>583.76</v>
       </c>
-      <c r="V6" s="93">
+      <c r="V6" s="92">
         <f>SUM(D6:U6)</f>
         <v>30829.056999999997</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="56">
         <f>[2]EB2!D7</f>
         <v>-401.47415000000001</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="56">
         <f>[2]EB2!E7</f>
         <v>-1509.7986000000001</v>
       </c>
-      <c r="F7" s="57">
+      <c r="F7" s="56">
         <f>[2]EB2!F7</f>
         <v>-1648.4854999999998</v>
       </c>
-      <c r="G7" s="57">
+      <c r="G7" s="56">
         <f>[2]EB2!G7</f>
         <v>-1683.1424999999999</v>
       </c>
-      <c r="H7" s="57">
+      <c r="H7" s="56">
         <f>[2]EB2!H7</f>
         <v>-295.38850000000002</v>
       </c>
-      <c r="I7" s="57">
+      <c r="I7" s="56">
         <f>[2]EB2!I7</f>
         <v>-194.51650000000001</v>
       </c>
-      <c r="J7" s="57">
+      <c r="J7" s="56">
         <f>[2]EB2!J7</f>
         <v>-1500.6420000000001</v>
       </c>
-      <c r="K7" s="57">
+      <c r="K7" s="56">
         <f>[2]EB2!K7</f>
         <v>-400.84</v>
       </c>
-      <c r="L7" s="57">
+      <c r="L7" s="56">
         <f>[2]EB2!L7</f>
         <v>-1239.28</v>
       </c>
-      <c r="M7" s="57">
+      <c r="M7" s="56">
         <f>[2]EB2!M7</f>
         <v>-453.036</v>
       </c>
-      <c r="N7" s="57">
+      <c r="N7" s="56">
         <f>[2]EB2!N7</f>
         <v>0</v>
       </c>
-      <c r="O7" s="57">
+      <c r="O7" s="56">
         <f>[2]EB2!O7</f>
         <v>-18.100999999999999</v>
       </c>
-      <c r="P7" s="57">
+      <c r="P7" s="56">
         <f>[2]EB2!P7</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="57">
+      <c r="Q7" s="56">
         <f>[2]EB2!Q7</f>
         <v>0</v>
       </c>
-      <c r="R7" s="57">
+      <c r="R7" s="56">
         <f>[2]EB2!R7</f>
         <v>0</v>
       </c>
-      <c r="S7" s="58">
+      <c r="S7" s="57">
         <f>[2]EB2!S7</f>
         <v>0</v>
       </c>
-      <c r="T7" s="58">
+      <c r="T7" s="57">
         <f>[2]EB2!T7</f>
         <v>-6.4500000000000002E-2</v>
       </c>
-      <c r="U7" s="57">
+      <c r="U7" s="56">
         <f>[2]EB2!U7</f>
         <v>-563.40200000000004</v>
       </c>
-      <c r="V7" s="93">
+      <c r="V7" s="92">
         <f>SUM(D7:U7)</f>
         <v>-9908.1712500000012</v>
       </c>
       <c r="X7" s="9"/>
     </row>
     <row r="8" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D8" s="60">
         <f>SUM(D5:D7)</f>
         <v>4694.8859999999995</v>
       </c>
-      <c r="E8" s="62">
+      <c r="E8" s="61">
         <f t="shared" ref="E8:U8" si="0">SUM(E5:E7)</f>
         <v>11204.937</v>
       </c>
-      <c r="F8" s="62">
+      <c r="F8" s="61">
         <f t="shared" si="0"/>
         <v>14862.094500000003</v>
       </c>
-      <c r="G8" s="62">
+      <c r="G8" s="61">
         <f t="shared" si="0"/>
         <v>521.77050000000008</v>
       </c>
-      <c r="H8" s="62">
+      <c r="H8" s="61">
         <f t="shared" si="0"/>
         <v>309.60000000000002</v>
       </c>
-      <c r="I8" s="62">
+      <c r="I8" s="61">
         <f t="shared" si="0"/>
         <v>131.613</v>
       </c>
-      <c r="J8" s="62">
+      <c r="J8" s="61">
         <f t="shared" si="0"/>
         <v>-840.64200000000005</v>
       </c>
-      <c r="K8" s="62">
+      <c r="K8" s="61">
         <f t="shared" si="0"/>
         <v>282.26000000000005</v>
       </c>
-      <c r="L8" s="62">
+      <c r="L8" s="61">
         <f t="shared" si="0"/>
         <v>-159.72000000000003</v>
       </c>
-      <c r="M8" s="62">
+      <c r="M8" s="61">
         <f t="shared" si="0"/>
         <v>143.99899999999997</v>
       </c>
-      <c r="N8" s="62">
+      <c r="N8" s="61">
         <f t="shared" si="0"/>
         <v>5445</v>
       </c>
-      <c r="O8" s="62">
+      <c r="O8" s="61">
         <f t="shared" si="0"/>
         <v>764.14374999999984</v>
       </c>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62">
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61">
         <f t="shared" si="0"/>
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="T8" s="62">
+      <c r="T8" s="61">
         <f t="shared" si="0"/>
         <v>1.1999999999999997E-2</v>
       </c>
-      <c r="U8" s="62">
+      <c r="U8" s="61">
         <f t="shared" si="0"/>
         <v>20.357999999999947</v>
       </c>
-      <c r="V8" s="63">
+      <c r="V8" s="62">
         <f>SUM(V5:V7)</f>
         <v>38498.733749999999</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B9" s="59"/>
-      <c r="C9" s="94" t="s">
+      <c r="B9" s="58"/>
+      <c r="C9" s="93" t="s">
         <v>64</v>
       </c>
       <c r="D9" s="8"/>
@@ -11614,413 +11578,413 @@
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
-      <c r="V9" s="95"/>
+      <c r="V9" s="94"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="65">
+      <c r="D10" s="64">
         <f>[2]EB2!D10</f>
         <v>-20.173299999999998</v>
       </c>
-      <c r="E10" s="65">
+      <c r="E10" s="64">
         <f>[2]EB2!E10</f>
         <v>-475.78800000000001</v>
       </c>
-      <c r="F10" s="65">
+      <c r="F10" s="64">
         <f>[2]EB2!F10</f>
         <v>0</v>
       </c>
-      <c r="G10" s="65">
+      <c r="G10" s="64">
         <f>[2]EB2!G10</f>
         <v>-16.283999999999999</v>
       </c>
-      <c r="H10" s="65">
+      <c r="H10" s="64">
         <f>[2]EB2!H10</f>
         <v>-2.1499999999999998E-2</v>
       </c>
-      <c r="I10" s="65">
+      <c r="I10" s="64">
         <f>[2]EB2!I10</f>
         <v>-528.76099999999997</v>
       </c>
-      <c r="J10" s="65">
+      <c r="J10" s="64">
         <f>[2]EB2!J10</f>
         <v>-164.50800000000001</v>
       </c>
-      <c r="K10" s="65">
+      <c r="K10" s="64">
         <f>[2]EB2!K10</f>
         <v>-0.61599999999999999</v>
       </c>
-      <c r="L10" s="65">
+      <c r="L10" s="64">
         <f>[2]EB2!L10</f>
         <v>-205.88</v>
       </c>
-      <c r="M10" s="65">
+      <c r="M10" s="64">
         <f>[2]EB2!M10</f>
         <v>0</v>
       </c>
-      <c r="N10" s="65">
+      <c r="N10" s="64">
         <f>[2]EB2!N10</f>
         <v>0</v>
       </c>
-      <c r="O10" s="65">
+      <c r="O10" s="64">
         <f>[2]EB2!O10</f>
         <v>-1.0707500000000003</v>
       </c>
-      <c r="P10" s="65">
+      <c r="P10" s="64">
         <f>[2]EB2!P10</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="65">
+      <c r="Q10" s="64">
         <f>[2]EB2!Q10</f>
         <v>0</v>
       </c>
-      <c r="R10" s="65">
+      <c r="R10" s="64">
         <f>[2]EB2!R10</f>
         <v>0</v>
       </c>
-      <c r="S10" s="65">
+      <c r="S10" s="64">
         <f>[2]EB2!S10</f>
         <v>-0.76</v>
       </c>
-      <c r="T10" s="65">
+      <c r="T10" s="64">
         <f>[2]EB2!T10</f>
         <v>0</v>
       </c>
-      <c r="U10" s="65">
+      <c r="U10" s="64">
         <f>[2]EB2!U10</f>
         <v>0</v>
       </c>
-      <c r="V10" s="96">
+      <c r="V10" s="95">
         <f>SUM(D10:U10)</f>
         <v>-1413.8625499999998</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="65">
+      <c r="D11" s="64">
         <f>[2]EB2!D11</f>
         <v>-3359.3419999999996</v>
       </c>
-      <c r="E11" s="65">
+      <c r="E11" s="64">
         <f>[2]EB2!E11</f>
         <v>-3381.3263999999999</v>
       </c>
-      <c r="F11" s="65">
+      <c r="F11" s="64">
         <f>[2]EB2!F11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="65">
+      <c r="G11" s="64">
         <f>[2]EB2!G11</f>
         <v>-30.160499999999999</v>
       </c>
-      <c r="H11" s="65">
+      <c r="H11" s="64">
         <f>[2]EB2!H11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="65">
+      <c r="I11" s="64">
         <f>[2]EB2!I11</f>
         <v>-23.835000000000001</v>
       </c>
-      <c r="J11" s="65">
+      <c r="J11" s="64">
         <f>[2]EB2!J11</f>
         <v>0</v>
       </c>
-      <c r="K11" s="65">
+      <c r="K11" s="64">
         <f>[2]EB2!K11</f>
         <v>0</v>
       </c>
-      <c r="L11" s="65">
+      <c r="L11" s="64">
         <f>[2]EB2!L11</f>
         <v>-524.78</v>
       </c>
-      <c r="M11" s="65">
+      <c r="M11" s="64">
         <f>[2]EB2!M11</f>
         <v>-33.529000000000003</v>
       </c>
-      <c r="N11" s="65">
+      <c r="N11" s="64">
         <f>[2]EB2!N11</f>
         <v>-5445</v>
       </c>
-      <c r="O11" s="65">
+      <c r="O11" s="64">
         <f>[2]EB2!O11</f>
         <v>-175.75306250000006</v>
       </c>
-      <c r="P11" s="65">
+      <c r="P11" s="64">
         <f>[2]EB2!P11</f>
         <v>-502.66000000000008</v>
       </c>
-      <c r="Q11" s="65">
+      <c r="Q11" s="64">
         <f>[2]EB2!Q11</f>
         <v>-490.09350000000001</v>
       </c>
-      <c r="R11" s="65">
+      <c r="R11" s="64">
         <f>[2]EB2!R11</f>
         <v>-68</v>
       </c>
-      <c r="S11" s="65">
+      <c r="S11" s="64">
         <f>[2]EB2!S11</f>
         <v>-16.474499999999999</v>
       </c>
-      <c r="T11" s="65">
+      <c r="T11" s="64">
         <f>[2]EB2!T11</f>
         <v>868.77949999999998</v>
       </c>
-      <c r="U11" s="65">
+      <c r="U11" s="64">
         <f>[2]EB2!U11</f>
         <v>5790.5</v>
       </c>
-      <c r="V11" s="96">
+      <c r="V11" s="95">
         <f>SUM(D11:U11)</f>
         <v>-7391.674462500001</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="65">
+      <c r="D12" s="64">
         <f>[2]EB2!D12</f>
         <v>-56.488599999999991</v>
       </c>
-      <c r="E12" s="65">
+      <c r="E12" s="64">
         <f>[2]EB2!E12</f>
         <v>-180.78059999999999</v>
       </c>
-      <c r="F12" s="65">
+      <c r="F12" s="64">
         <f>[2]EB2!F12</f>
         <v>0</v>
       </c>
-      <c r="G12" s="65">
+      <c r="G12" s="64">
         <f>[2]EB2!G12</f>
         <v>-7.6189999999999998</v>
       </c>
-      <c r="H12" s="65">
+      <c r="H12" s="64">
         <f>[2]EB2!H12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="65">
+      <c r="I12" s="64">
         <f>[2]EB2!I12</f>
         <v>-0.23350000000000001</v>
       </c>
-      <c r="J12" s="65">
+      <c r="J12" s="64">
         <f>[2]EB2!J12</f>
         <v>0</v>
       </c>
-      <c r="K12" s="65">
+      <c r="K12" s="64">
         <f>[2]EB2!K12</f>
         <v>0</v>
       </c>
-      <c r="L12" s="65">
+      <c r="L12" s="64">
         <f>[2]EB2!L12</f>
         <v>-15.2</v>
       </c>
-      <c r="M12" s="65">
+      <c r="M12" s="64">
         <f>[2]EB2!M12</f>
         <v>-1.772</v>
       </c>
-      <c r="N12" s="65">
+      <c r="N12" s="64">
         <f>[2]EB2!N12</f>
         <v>0</v>
       </c>
-      <c r="O12" s="65">
+      <c r="O12" s="64">
         <f>[2]EB2!O12</f>
         <v>-35.051749999999998</v>
       </c>
-      <c r="P12" s="65">
+      <c r="P12" s="64">
         <f>[2]EB2!P12</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="65">
+      <c r="Q12" s="64">
         <f>[2]EB2!Q12</f>
         <v>0</v>
       </c>
-      <c r="R12" s="65">
+      <c r="R12" s="64">
         <f>[2]EB2!R12</f>
         <v>0</v>
       </c>
-      <c r="S12" s="65">
+      <c r="S12" s="64">
         <f>[2]EB2!S12</f>
         <v>-0.78449999999999998</v>
       </c>
-      <c r="T12" s="65">
+      <c r="T12" s="64">
         <f>[2]EB2!T12</f>
         <v>329.37150000000003</v>
       </c>
-      <c r="U12" s="65">
+      <c r="U12" s="64">
         <f>[2]EB2!U12</f>
         <v>0</v>
       </c>
-      <c r="V12" s="96">
+      <c r="V12" s="95">
         <f>SUM(D12:U12)</f>
         <v>31.441550000000063</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="65">
+      <c r="D13" s="64">
         <f>[2]EB2!D13</f>
         <v>0</v>
       </c>
-      <c r="E13" s="65">
+      <c r="E13" s="64">
         <f>[2]EB2!E13</f>
         <v>0</v>
       </c>
-      <c r="F13" s="57">
+      <c r="F13" s="56">
         <f>[2]EB2!F13</f>
         <v>-15868.2305</v>
       </c>
-      <c r="G13" s="57">
+      <c r="G13" s="56">
         <f>[2]EB2!G13</f>
         <v>5701.34</v>
       </c>
-      <c r="H13" s="57">
+      <c r="H13" s="56">
         <f>[2]EB2!H13</f>
         <v>969.47799999999995</v>
       </c>
-      <c r="I13" s="57">
+      <c r="I13" s="56">
         <f>[2]EB2!I13</f>
         <v>1086.3040000000001</v>
       </c>
-      <c r="J13" s="57">
+      <c r="J13" s="56">
         <f>[2]EB2!J13</f>
         <v>3354.9119999999998</v>
       </c>
-      <c r="K13" s="57">
+      <c r="K13" s="56">
         <f>[2]EB2!K13</f>
         <v>970.28800000000001</v>
       </c>
-      <c r="L13" s="57">
+      <c r="L13" s="56">
         <f>[2]EB2!L13</f>
         <v>2285.1019999999999</v>
       </c>
-      <c r="M13" s="57">
+      <c r="M13" s="56">
         <f>[2]EB2!M13</f>
         <v>1299.9449999999999</v>
       </c>
-      <c r="N13" s="65">
+      <c r="N13" s="64">
         <f>[2]EB2!N13</f>
         <v>0</v>
       </c>
-      <c r="O13" s="65">
+      <c r="O13" s="64">
         <f>[2]EB2!O13</f>
         <v>0</v>
       </c>
-      <c r="P13" s="65">
+      <c r="P13" s="64">
         <f>[2]EB2!P13</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="65">
+      <c r="Q13" s="64">
         <f>[2]EB2!Q13</f>
         <v>0</v>
       </c>
-      <c r="R13" s="65">
+      <c r="R13" s="64">
         <f>[2]EB2!R13</f>
         <v>0</v>
       </c>
-      <c r="S13" s="65">
+      <c r="S13" s="64">
         <f>[2]EB2!S13</f>
         <v>0</v>
       </c>
-      <c r="T13" s="65">
+      <c r="T13" s="64">
         <f>[2]EB2!T13</f>
         <v>0</v>
       </c>
-      <c r="U13" s="65">
+      <c r="U13" s="64">
         <f>[2]EB2!U13</f>
         <v>0</v>
       </c>
-      <c r="V13" s="96">
+      <c r="V13" s="95">
         <f>SUM(D13:U13)</f>
         <v>-200.86150000000021</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="59"/>
-      <c r="C14" s="60" t="s">
+      <c r="B14" s="58"/>
+      <c r="C14" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="68">
+      <c r="D14" s="67">
         <f>SUM(D10:D13)</f>
         <v>-3436.0038999999997</v>
       </c>
-      <c r="E14" s="62">
+      <c r="E14" s="61">
         <f t="shared" ref="E14:U14" si="1">SUM(E10:E13)</f>
         <v>-4037.895</v>
       </c>
-      <c r="F14" s="62">
+      <c r="F14" s="61">
         <f t="shared" si="1"/>
         <v>-15868.2305</v>
       </c>
-      <c r="G14" s="62">
+      <c r="G14" s="61">
         <f t="shared" si="1"/>
         <v>5647.2764999999999</v>
       </c>
-      <c r="H14" s="62">
+      <c r="H14" s="61">
         <f t="shared" si="1"/>
         <v>969.45650000000001</v>
       </c>
-      <c r="I14" s="62">
+      <c r="I14" s="61">
         <f t="shared" si="1"/>
         <v>533.47450000000003</v>
       </c>
-      <c r="J14" s="62">
+      <c r="J14" s="61">
         <f t="shared" si="1"/>
         <v>3190.404</v>
       </c>
-      <c r="K14" s="62">
+      <c r="K14" s="61">
         <f t="shared" si="1"/>
         <v>969.67200000000003</v>
       </c>
-      <c r="L14" s="62">
+      <c r="L14" s="61">
         <f t="shared" si="1"/>
         <v>1539.2419999999997</v>
       </c>
-      <c r="M14" s="62">
+      <c r="M14" s="61">
         <f t="shared" si="1"/>
         <v>1264.644</v>
       </c>
-      <c r="N14" s="62">
+      <c r="N14" s="61">
         <f t="shared" si="1"/>
         <v>-5445</v>
       </c>
-      <c r="O14" s="62">
+      <c r="O14" s="61">
         <f t="shared" si="1"/>
         <v>-211.87556250000006</v>
       </c>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62">
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61">
         <f t="shared" si="1"/>
         <v>-18.019000000000002</v>
       </c>
-      <c r="T14" s="62">
+      <c r="T14" s="61">
         <f t="shared" si="1"/>
         <v>1198.1510000000001</v>
       </c>
-      <c r="U14" s="62">
+      <c r="U14" s="61">
         <f t="shared" si="1"/>
         <v>5790.5</v>
       </c>
-      <c r="V14" s="63">
+      <c r="V14" s="62">
         <f>SUM(V10:V13)</f>
         <v>-8974.9569625000022</v>
       </c>
@@ -12051,11 +12015,11 @@
     </row>
     <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -12236,45 +12200,45 @@
       <c r="H2" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="113" t="s">
+      <c r="J2" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="113"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="114"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
     </row>
     <row r="3" spans="2:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="H3" s="104"/>
-      <c r="J3" s="115" t="s">
+      <c r="H3" s="103"/>
+      <c r="J3" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="116" t="s">
+      <c r="K3" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="115" t="s">
+      <c r="L3" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="115" t="s">
+      <c r="M3" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="115" t="s">
+      <c r="N3" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="115" t="s">
+      <c r="O3" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="115" t="s">
+      <c r="P3" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="115" t="s">
+      <c r="Q3" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="115" t="s">
+      <c r="R3" s="110" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12284,31 +12248,31 @@
       <c r="D4" s="45"/>
       <c r="E4" s="45"/>
       <c r="H4" s="13"/>
-      <c r="J4" s="117" t="s">
+      <c r="J4" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="117" t="s">
+      <c r="K4" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="117" t="s">
+      <c r="L4" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="117" t="s">
+      <c r="M4" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="117" t="s">
+      <c r="N4" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="117" t="s">
+      <c r="O4" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="117" t="s">
+      <c r="P4" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="117" t="s">
+      <c r="Q4" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="117" t="s">
+      <c r="R4" s="112" t="s">
         <v>29</v>
       </c>
     </row>
@@ -12337,20 +12301,20 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
       <c r="I8" s="37"/>
-      <c r="J8" s="113" t="s">
+      <c r="J8" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="113"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="114"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="109"/>
+      <c r="R8" s="109"/>
     </row>
     <row r="9" spans="2:18" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="21" t="s">
@@ -12362,42 +12326,42 @@
       <c r="D9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="83" t="s">
+      <c r="E9" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="F9" s="84" t="s">
+      <c r="F9" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="84" t="s">
+      <c r="G9" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="106"/>
+      <c r="H9" s="105"/>
       <c r="I9" s="39"/>
-      <c r="J9" s="115" t="s">
+      <c r="J9" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="116" t="s">
+      <c r="K9" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="115" t="s">
+      <c r="L9" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="M9" s="115" t="s">
+      <c r="M9" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="N9" s="115" t="s">
+      <c r="N9" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="115" t="s">
+      <c r="O9" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="115" t="s">
+      <c r="P9" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="Q9" s="115" t="s">
+      <c r="Q9" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="115" t="s">
+      <c r="R9" s="110" t="s">
         <v>20</v>
       </c>
     </row>
@@ -12420,61 +12384,61 @@
       <c r="G10" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="H10" s="107"/>
+      <c r="H10" s="106"/>
       <c r="I10" s="37"/>
-      <c r="J10" s="117" t="s">
+      <c r="J10" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="K10" s="117" t="s">
+      <c r="K10" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="117" t="s">
+      <c r="L10" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="117" t="s">
+      <c r="M10" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="N10" s="117" t="s">
+      <c r="N10" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="117" t="s">
+      <c r="O10" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="P10" s="117" t="s">
+      <c r="P10" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="Q10" s="117" t="s">
+      <c r="Q10" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="R10" s="117" t="s">
+      <c r="R10" s="112" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="18" t="str">
         <f>$F$2</f>
         <v>Pja</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
-      <c r="H11" s="108"/>
+      <c r="H11" s="107"/>
       <c r="I11" s="37"/>
-      <c r="J11" s="117" t="s">
+      <c r="J11" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="K11" s="117"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="117"/>
-      <c r="N11" s="117"/>
-      <c r="O11" s="117"/>
-      <c r="P11" s="117"/>
-      <c r="Q11" s="117"/>
-      <c r="R11" s="117"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="112"/>
+      <c r="M11" s="112"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="112"/>
+      <c r="P11" s="112"/>
+      <c r="Q11" s="112"/>
+      <c r="R11" s="112"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="35" t="str">
@@ -12489,52 +12453,52 @@
         <f>'EB2'!G2</f>
         <v>DSL</v>
       </c>
-      <c r="E12" s="78">
+      <c r="E12" s="77">
         <f>'EB2'!G$13/SUM('EB2'!$G$13:$M$13)</f>
         <v>0.36389900563393895</v>
       </c>
-      <c r="F12" s="74">
+      <c r="F12" s="73">
         <f>-SUM('EB2'!F13)/SUM('EB2'!G13:M13)</f>
         <v>1.0128203720739584</v>
       </c>
-      <c r="G12" s="72">
+      <c r="G12" s="71">
         <f>SUM('EB2'!G13:M13)</f>
         <v>15667.368999999999</v>
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="37"/>
-      <c r="J12" s="118" t="s">
+      <c r="J12" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="K12" s="119"/>
-      <c r="L12" s="119" t="str">
+      <c r="K12" s="114"/>
+      <c r="L12" s="114" t="str">
         <f>$B$2&amp;$H$2&amp;'EB2'!F2&amp;"00"</f>
         <v>REFEOIL00</v>
       </c>
-      <c r="M12" s="122" t="str">
+      <c r="M12" s="117" t="str">
         <f>$D$2&amp;" "&amp;$H$1&amp;RIGHT(L12,2)</f>
         <v>Refinery Existing00</v>
       </c>
-      <c r="N12" s="119" t="str">
+      <c r="N12" s="114" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="O12" s="119" t="str">
+      <c r="O12" s="114" t="str">
         <f>$F$2</f>
         <v>Pja</v>
       </c>
-      <c r="P12" s="118"/>
-      <c r="Q12" s="118" t="s">
+      <c r="P12" s="113"/>
+      <c r="Q12" s="113" t="s">
         <v>120</v>
       </c>
-      <c r="R12" s="119"/>
+      <c r="R12" s="114"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D13" s="35" t="str">
         <f>'EB2'!H2</f>
         <v>KER</v>
       </c>
-      <c r="E13" s="78">
+      <c r="E13" s="77">
         <f>'EB2'!H$13/SUM('EB2'!$G$13:$M$13)</f>
         <v>6.1878800454626431E-2</v>
       </c>
@@ -12557,11 +12521,11 @@
         <f>'EB2'!I2</f>
         <v>LPG</v>
       </c>
-      <c r="E14" s="78">
+      <c r="E14" s="77">
         <f>'EB2'!I$13/SUM('EB2'!$G$13:$M$13)</f>
         <v>6.9335444898246806E-2</v>
       </c>
-      <c r="F14" s="50"/>
+      <c r="F14" s="49"/>
       <c r="G14" s="38"/>
       <c r="H14" s="38"/>
       <c r="I14" s="37"/>
@@ -12582,11 +12546,11 @@
         <f>'EB2'!J2</f>
         <v>GSL</v>
       </c>
-      <c r="E15" s="78">
+      <c r="E15" s="77">
         <f>'EB2'!J$13/SUM('EB2'!$G$13:$M$13)</f>
         <v>0.21413371957984778</v>
       </c>
-      <c r="F15" s="50"/>
+      <c r="F15" s="49"/>
       <c r="G15" s="38"/>
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
@@ -12607,11 +12571,11 @@
         <f>'EB2'!K2</f>
         <v>NAP</v>
       </c>
-      <c r="E16" s="78">
+      <c r="E16" s="77">
         <f>'EB2'!K$13/SUM('EB2'!$G$13:$M$13)</f>
         <v>6.1930500264594526E-2</v>
       </c>
-      <c r="F16" s="50"/>
+      <c r="F16" s="49"/>
       <c r="G16" s="38"/>
       <c r="H16" s="38"/>
       <c r="I16" s="38"/>
@@ -12632,11 +12596,11 @@
         <f>'EB2'!L2</f>
         <v>HFO</v>
       </c>
-      <c r="E17" s="78">
+      <c r="E17" s="77">
         <f>'EB2'!L$13/SUM('EB2'!$G$13:$M$13)</f>
         <v>0.1458510359971735</v>
       </c>
-      <c r="F17" s="50"/>
+      <c r="F17" s="49"/>
       <c r="G17" s="38"/>
       <c r="H17" s="38"/>
       <c r="I17" s="38"/>
@@ -12657,13 +12621,13 @@
         <f>'EB2'!M2</f>
         <v>OPP</v>
       </c>
-      <c r="E18" s="78">
+      <c r="E18" s="77">
         <f>'EB2'!M$13/SUM('EB2'!$G$13:$M$13)</f>
         <v>8.2971493171572083E-2</v>
       </c>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
       <c r="I18" s="38"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -12679,7 +12643,7 @@
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="51"/>
+      <c r="E19" s="50"/>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="38"/>
@@ -12695,7 +12659,7 @@
       <c r="R19" s="5"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E20" s="52"/>
+      <c r="E20" s="51"/>
       <c r="I20" s="38"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -12708,16 +12672,16 @@
       <c r="R20" s="5"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E21" s="52"/>
+      <c r="E21" s="51"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="67"/>
+      <c r="B23" s="66"/>
       <c r="C23" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="73"/>
+      <c r="B24" s="72"/>
       <c r="C24" s="1" t="s">
         <v>125</v>
       </c>
@@ -12731,10 +12695,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="B3:R11"/>
+  <dimension ref="B7:R11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E36:E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12745,63 +12709,6 @@
     <col min="15" max="15" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B3" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-    </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="112" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="112" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" s="112" t="s">
-        <v>145</v>
-      </c>
-      <c r="F4" s="112" t="s">
-        <v>146</v>
-      </c>
-      <c r="G4" s="112" t="s">
-        <v>147</v>
-      </c>
-      <c r="H4" s="112" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="110" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="111">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-    </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="J7" s="11"/>
       <c r="K7" s="5"/>
@@ -12814,96 +12721,95 @@
       <c r="R7" s="11"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="113" t="s">
+      <c r="B8" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="115" t="s">
+      <c r="D9" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="115" t="s">
+      <c r="E9" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="115" t="s">
+      <c r="F9" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="115" t="s">
+      <c r="G9" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="115" t="s">
+      <c r="H9" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="115" t="s">
+      <c r="I9" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="115" t="s">
+      <c r="J9" s="110" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:18" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="117" t="s">
+      <c r="B10" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="117" t="s">
+      <c r="D10" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="117" t="s">
+      <c r="E10" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="117" t="s">
+      <c r="F10" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="117" t="s">
+      <c r="G10" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="117" t="s">
+      <c r="H10" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="117" t="s">
+      <c r="I10" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="117" t="s">
+      <c r="J10" s="112" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="118" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="118" t="str">
-        <f>B5</f>
-        <v>TOTCO2</v>
-      </c>
-      <c r="E11" s="118" t="s">
-        <v>151</v>
-      </c>
-      <c r="F11" s="118" t="str">
+      <c r="B11" s="113" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="114"/>
+      <c r="D11" s="113" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="113" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="113" t="str">
         <f>'EB2'!AA2</f>
         <v>kt</v>
       </c>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="113"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12931,57 +12837,57 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="81" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="D5" s="131" t="s">
+      <c r="D5" s="126" t="s">
         <v>132</v>
       </c>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="132"/>
-      <c r="K5" s="132"/>
-      <c r="L5" s="132"/>
-      <c r="M5" s="132"/>
-      <c r="N5" s="132"/>
-      <c r="O5" s="132"/>
-      <c r="P5" s="133"/>
-      <c r="Q5" s="102"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="101"/>
     </row>
     <row r="6" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D6" s="103" t="s">
+      <c r="D6" s="102" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="M6" s="103" t="s">
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="M6" s="102" t="s">
         <v>128</v>
       </c>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="81"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="80"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="M7" s="103" t="s">
+      <c r="M7" s="102" t="s">
         <v>129</v>
       </c>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
     </row>
     <row r="44" spans="13:17" x14ac:dyDescent="0.2">
-      <c r="M44" s="81"/>
-      <c r="N44" s="81"/>
-      <c r="O44" s="81"/>
+      <c r="M44" s="80"/>
+      <c r="N44" s="80"/>
+      <c r="O44" s="80"/>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
     </row>
@@ -13059,115 +12965,115 @@
         <f>'EB2'!Y2</f>
         <v>M€2005</v>
       </c>
-      <c r="I2" s="113" t="s">
+      <c r="I2" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="113"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="I3" s="115" t="s">
+      <c r="I3" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="116" t="s">
+      <c r="J3" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="115" t="s">
+      <c r="K3" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="115" t="s">
+      <c r="L3" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="115" t="s">
+      <c r="M3" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="115" t="s">
+      <c r="N3" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="115" t="s">
+      <c r="O3" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="115" t="s">
+      <c r="P3" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="115" t="s">
+      <c r="Q3" s="110" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
-      <c r="I4" s="117" t="s">
+      <c r="I4" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="117" t="s">
+      <c r="J4" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="117" t="s">
+      <c r="K4" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="117" t="s">
+      <c r="L4" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="117" t="s">
+      <c r="M4" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="117" t="s">
+      <c r="N4" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="117" t="s">
+      <c r="O4" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="117" t="s">
+      <c r="P4" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="117" t="s">
+      <c r="Q4" s="112" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="I5" s="118" t="s">
+      <c r="I5" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="J5" s="119"/>
-      <c r="K5" s="118" t="str">
+      <c r="J5" s="114"/>
+      <c r="K5" s="113" t="str">
         <f>C2</f>
         <v>COA</v>
       </c>
-      <c r="L5" s="118" t="str">
+      <c r="L5" s="113" t="str">
         <f>D2</f>
         <v>Solid Fuels</v>
       </c>
-      <c r="M5" s="118" t="str">
+      <c r="M5" s="113" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N5" s="118"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="118"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="113"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="I7" s="113" t="s">
+      <c r="I7" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="113"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="120"/>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
@@ -13179,93 +13085,93 @@
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="86" t="s">
+      <c r="E8" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="86" t="s">
+      <c r="F8" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="86" t="s">
+      <c r="G8" s="85" t="s">
         <v>80</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="115" t="s">
+      <c r="I8" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="116" t="s">
+      <c r="J8" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="115" t="s">
+      <c r="K8" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="115" t="s">
+      <c r="L8" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="115" t="s">
+      <c r="M8" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="115" t="s">
+      <c r="N8" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="115" t="s">
+      <c r="O8" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="115" t="s">
+      <c r="P8" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="115" t="s">
+      <c r="Q8" s="110" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:18" s="5" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="G9" s="53" t="s">
+      <c r="G9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="I9" s="117" t="s">
+      <c r="I9" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="117" t="s">
+      <c r="J9" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="117" t="s">
+      <c r="K9" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="117" t="s">
+      <c r="L9" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="117" t="s">
+      <c r="M9" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="117" t="s">
+      <c r="N9" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="O9" s="117" t="s">
+      <c r="O9" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="P9" s="117" t="s">
+      <c r="P9" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="Q9" s="117" t="s">
+      <c r="Q9" s="112" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:18" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="52" t="s">
         <v>85</v>
       </c>
       <c r="C10" s="18"/>
@@ -13282,17 +13188,17 @@
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="I10" s="117" t="s">
+      <c r="I10" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="121"/>
-      <c r="P10" s="121"/>
-      <c r="Q10" s="121"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
     </row>
     <row r="11" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="str">
@@ -13304,40 +13210,40 @@
         <f>$K$5</f>
         <v>COA</v>
       </c>
-      <c r="E11" s="99">
+      <c r="E11" s="98">
         <v>80000</v>
       </c>
-      <c r="F11" s="70">
+      <c r="F11" s="69">
         <v>2</v>
       </c>
-      <c r="G11" s="71">
+      <c r="G11" s="70">
         <f>'EB2'!$D$5*'EB2'!D21</f>
         <v>2125.8189750000001</v>
       </c>
-      <c r="I11" s="118" t="str">
+      <c r="I11" s="113" t="str">
         <f>'EB2'!$B$5</f>
         <v>MIN</v>
       </c>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119" t="str">
+      <c r="J11" s="114"/>
+      <c r="K11" s="114" t="str">
         <f>$I$11&amp;$C$2&amp;1</f>
         <v>MINCOA1</v>
       </c>
-      <c r="L11" s="122" t="str">
+      <c r="L11" s="117" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(K11,1)</f>
         <v>Domestic Supply of Solid Fuels Step 1</v>
       </c>
-      <c r="M11" s="119" t="str">
+      <c r="M11" s="114" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N11" s="119" t="str">
+      <c r="N11" s="114" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O11" s="119"/>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="119"/>
+      <c r="O11" s="114"/>
+      <c r="P11" s="114"/>
+      <c r="Q11" s="114"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="str">
@@ -13349,37 +13255,37 @@
         <f>$K$5</f>
         <v>COA</v>
       </c>
-      <c r="E12" s="99">
+      <c r="E12" s="98">
         <v>160000</v>
       </c>
-      <c r="F12" s="70">
+      <c r="F12" s="69">
         <v>2.5</v>
       </c>
-      <c r="G12" s="71">
+      <c r="G12" s="70">
         <f>'EB2'!$D$5*'EB2'!D22</f>
         <v>708.60632499999997</v>
       </c>
-      <c r="I12" s="119"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119" t="str">
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114" t="str">
         <f>$I$11&amp;$C$2&amp;2</f>
         <v>MINCOA2</v>
       </c>
-      <c r="L12" s="122" t="str">
+      <c r="L12" s="117" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(K12,1)</f>
         <v>Domestic Supply of Solid Fuels Step 2</v>
       </c>
-      <c r="M12" s="119" t="str">
+      <c r="M12" s="114" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N12" s="119" t="str">
+      <c r="N12" s="114" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O12" s="119"/>
-      <c r="P12" s="119"/>
-      <c r="Q12" s="119"/>
+      <c r="O12" s="114"/>
+      <c r="P12" s="114"/>
+      <c r="Q12" s="114"/>
       <c r="R12" s="5"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
@@ -13392,36 +13298,36 @@
         <f>$K$5</f>
         <v>COA</v>
       </c>
-      <c r="E13" s="99">
+      <c r="E13" s="98">
         <v>0</v>
       </c>
-      <c r="F13" s="70">
+      <c r="F13" s="69">
         <v>3</v>
       </c>
-      <c r="G13" s="100">
+      <c r="G13" s="99">
         <v>0</v>
       </c>
-      <c r="I13" s="119"/>
-      <c r="J13" s="119"/>
-      <c r="K13" s="119" t="str">
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114" t="str">
         <f>$I$11&amp;$C$2&amp;3</f>
         <v>MINCOA3</v>
       </c>
-      <c r="L13" s="122" t="str">
+      <c r="L13" s="117" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(K13,1)</f>
         <v>Domestic Supply of Solid Fuels Step 3</v>
       </c>
-      <c r="M13" s="119" t="str">
+      <c r="M13" s="114" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N13" s="119" t="str">
+      <c r="N13" s="114" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O13" s="119"/>
-      <c r="P13" s="119"/>
-      <c r="Q13" s="119"/>
+      <c r="O13" s="114"/>
+      <c r="P13" s="114"/>
+      <c r="Q13" s="114"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="str">
@@ -13434,37 +13340,37 @@
         <v>COA</v>
       </c>
       <c r="E14" s="10"/>
-      <c r="F14" s="70">
+      <c r="F14" s="69">
         <v>2.75</v>
       </c>
-      <c r="G14" s="71">
+      <c r="G14" s="70">
         <f>'EB2'!D6</f>
         <v>2261.9348499999996</v>
       </c>
-      <c r="I14" s="119" t="str">
+      <c r="I14" s="114" t="str">
         <f>'EB2'!$B$6</f>
         <v>IMP</v>
       </c>
-      <c r="J14" s="119"/>
-      <c r="K14" s="119" t="str">
+      <c r="J14" s="114"/>
+      <c r="K14" s="114" t="str">
         <f>$I$14&amp;$C$2&amp;1</f>
         <v>IMPCOA1</v>
       </c>
-      <c r="L14" s="122" t="str">
+      <c r="L14" s="117" t="str">
         <f>"Import of "&amp;$D$2&amp; " Step "&amp;RIGHT(K14,1)</f>
         <v>Import of Solid Fuels Step 1</v>
       </c>
-      <c r="M14" s="119" t="str">
+      <c r="M14" s="114" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N14" s="119" t="str">
+      <c r="N14" s="114" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O14" s="119"/>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="119"/>
+      <c r="O14" s="114"/>
+      <c r="P14" s="114"/>
+      <c r="Q14" s="114"/>
     </row>
     <row r="15" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="11" t="str">
@@ -13476,38 +13382,38 @@
         <v>COA</v>
       </c>
       <c r="E15" s="10"/>
-      <c r="F15" s="70">
+      <c r="F15" s="69">
         <f>2.75*0.99</f>
         <v>2.7225000000000001</v>
       </c>
-      <c r="G15" s="71">
+      <c r="G15" s="70">
         <f>-'EB2'!D7</f>
         <v>401.47415000000001</v>
       </c>
-      <c r="I15" s="119" t="str">
+      <c r="I15" s="114" t="str">
         <f>'EB2'!B7</f>
         <v>EXP</v>
       </c>
-      <c r="J15" s="119"/>
-      <c r="K15" s="119" t="str">
+      <c r="J15" s="114"/>
+      <c r="K15" s="114" t="str">
         <f>$I$15&amp;$C$2&amp;1</f>
         <v>EXPCOA1</v>
       </c>
-      <c r="L15" s="122" t="str">
+      <c r="L15" s="117" t="str">
         <f>"Export of "&amp;$D$2&amp; " Step "&amp;RIGHT(K15,1)</f>
         <v>Export of Solid Fuels Step 1</v>
       </c>
-      <c r="M15" s="119" t="str">
+      <c r="M15" s="114" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N15" s="119" t="str">
+      <c r="N15" s="114" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O15" s="119"/>
-      <c r="P15" s="119"/>
-      <c r="Q15" s="119"/>
+      <c r="O15" s="114"/>
+      <c r="P15" s="114"/>
+      <c r="Q15" s="114"/>
       <c r="R15"/>
     </row>
     <row r="16" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -13556,7 +13462,7 @@
       <c r="Q21" s="5"/>
     </row>
     <row r="22" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="67"/>
+      <c r="B22" s="66"/>
       <c r="C22" s="1" t="s">
         <v>124</v>
       </c>
@@ -13577,7 +13483,7 @@
       <c r="R22"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="73"/>
+      <c r="B23" s="72"/>
       <c r="C23" s="1" t="s">
         <v>125</v>
       </c>
@@ -13786,115 +13692,115 @@
         <f>'EB2'!Y2</f>
         <v>M€2005</v>
       </c>
-      <c r="I2" s="113" t="s">
+      <c r="I2" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="113"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="I3" s="115" t="s">
+      <c r="I3" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="116" t="s">
+      <c r="J3" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="115" t="s">
+      <c r="K3" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="115" t="s">
+      <c r="L3" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="115" t="s">
+      <c r="M3" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="115" t="s">
+      <c r="N3" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="115" t="s">
+      <c r="O3" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="115" t="s">
+      <c r="P3" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="115" t="s">
+      <c r="Q3" s="110" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
-      <c r="I4" s="117" t="s">
+      <c r="I4" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="117" t="s">
+      <c r="J4" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="117" t="s">
+      <c r="K4" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="117" t="s">
+      <c r="L4" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="117" t="s">
+      <c r="M4" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="117" t="s">
+      <c r="N4" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="117" t="s">
+      <c r="O4" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="117" t="s">
+      <c r="P4" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="117" t="s">
+      <c r="Q4" s="112" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="I5" s="118" t="s">
+      <c r="I5" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="J5" s="119"/>
-      <c r="K5" s="118" t="str">
+      <c r="J5" s="114"/>
+      <c r="K5" s="113" t="str">
         <f>C2</f>
         <v>GAS</v>
       </c>
-      <c r="L5" s="118" t="str">
+      <c r="L5" s="113" t="str">
         <f>D2</f>
         <v>Natural Gas</v>
       </c>
-      <c r="M5" s="118" t="str">
+      <c r="M5" s="113" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N5" s="118"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="118"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="113"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="I7" s="113" t="s">
+      <c r="I7" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="113"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="120"/>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
@@ -13906,92 +13812,92 @@
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="86" t="s">
+      <c r="E8" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="86" t="s">
+      <c r="F8" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="86" t="s">
+      <c r="G8" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="115" t="s">
+      <c r="I8" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="116" t="s">
+      <c r="J8" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="115" t="s">
+      <c r="K8" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="115" t="s">
+      <c r="L8" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="115" t="s">
+      <c r="M8" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="115" t="s">
+      <c r="N8" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="115" t="s">
+      <c r="O8" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="115" t="s">
+      <c r="P8" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="115" t="s">
+      <c r="Q8" s="110" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:18" s="5" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="G9" s="53" t="s">
+      <c r="G9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="I9" s="117" t="s">
+      <c r="I9" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="117" t="s">
+      <c r="J9" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="117" t="s">
+      <c r="K9" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="117" t="s">
+      <c r="L9" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="117" t="s">
+      <c r="M9" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="117" t="s">
+      <c r="N9" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="O9" s="117" t="s">
+      <c r="O9" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="P9" s="117" t="s">
+      <c r="P9" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="Q9" s="117" t="s">
+      <c r="Q9" s="112" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:18" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="52" t="s">
         <v>85</v>
       </c>
       <c r="C10" s="18"/>
@@ -14008,17 +13914,17 @@
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="I10" s="117" t="s">
+      <c r="I10" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="121"/>
-      <c r="P10" s="121"/>
-      <c r="Q10" s="121"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
     </row>
     <row r="11" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="str">
@@ -14030,40 +13936,40 @@
         <f>$K$5</f>
         <v>GAS</v>
       </c>
-      <c r="E11" s="77">
+      <c r="E11" s="76">
         <v>15000</v>
       </c>
-      <c r="F11" s="76">
+      <c r="F11" s="75">
         <v>3.6</v>
       </c>
-      <c r="G11" s="72">
+      <c r="G11" s="71">
         <f>'EB2'!$E$5*'EB2'!E21</f>
         <v>2369.8490999999999</v>
       </c>
-      <c r="I11" s="118" t="str">
+      <c r="I11" s="113" t="str">
         <f>'EB2'!$B$5</f>
         <v>MIN</v>
       </c>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119" t="str">
+      <c r="J11" s="114"/>
+      <c r="K11" s="114" t="str">
         <f>$I$11&amp;$C$2&amp;1</f>
         <v>MINGAS1</v>
       </c>
-      <c r="L11" s="122" t="str">
+      <c r="L11" s="117" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(K11,1)</f>
         <v>Domestic Supply of Natural Gas Step 1</v>
       </c>
-      <c r="M11" s="119" t="str">
+      <c r="M11" s="114" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N11" s="119" t="str">
+      <c r="N11" s="114" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O11" s="119"/>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="119"/>
+      <c r="O11" s="114"/>
+      <c r="P11" s="114"/>
+      <c r="Q11" s="114"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="str">
@@ -14075,38 +13981,38 @@
         <f>$K$5</f>
         <v>GAS</v>
       </c>
-      <c r="E12" s="77">
+      <c r="E12" s="76">
         <v>20000</v>
       </c>
-      <c r="F12" s="76">
+      <c r="F12" s="75">
         <v>4.1399999999999997</v>
       </c>
-      <c r="G12" s="72">
+      <c r="G12" s="71">
         <f>'EB2'!$E$5*'EB2'!E22</f>
         <v>2369.8490999999999</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119" t="str">
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114" t="str">
         <f>$I$11&amp;$C$2&amp;2</f>
         <v>MINGAS2</v>
       </c>
-      <c r="L12" s="122" t="str">
+      <c r="L12" s="117" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(K12,1)</f>
         <v>Domestic Supply of Natural Gas Step 2</v>
       </c>
-      <c r="M12" s="119" t="str">
+      <c r="M12" s="114" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N12" s="119" t="str">
+      <c r="N12" s="114" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O12" s="119"/>
-      <c r="P12" s="119"/>
-      <c r="Q12" s="119"/>
+      <c r="O12" s="114"/>
+      <c r="P12" s="114"/>
+      <c r="Q12" s="114"/>
       <c r="R12" s="5"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
@@ -14119,36 +14025,36 @@
         <f>$K$5</f>
         <v>GAS</v>
       </c>
-      <c r="E13" s="77">
+      <c r="E13" s="76">
         <v>3000000</v>
       </c>
-      <c r="F13" s="76">
+      <c r="F13" s="75">
         <v>4.45</v>
       </c>
-      <c r="G13" s="77">
+      <c r="G13" s="76">
         <v>5000</v>
       </c>
-      <c r="I13" s="119"/>
-      <c r="J13" s="119"/>
-      <c r="K13" s="119" t="str">
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114" t="str">
         <f>$I$11&amp;$C$2&amp;3</f>
         <v>MINGAS3</v>
       </c>
-      <c r="L13" s="122" t="str">
+      <c r="L13" s="117" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(K13,1)</f>
         <v>Domestic Supply of Natural Gas Step 3</v>
       </c>
-      <c r="M13" s="119" t="str">
+      <c r="M13" s="114" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N13" s="119" t="str">
+      <c r="N13" s="114" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O13" s="119"/>
-      <c r="P13" s="119"/>
-      <c r="Q13" s="119"/>
+      <c r="O13" s="114"/>
+      <c r="P13" s="114"/>
+      <c r="Q13" s="114"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="str">
@@ -14161,34 +14067,34 @@
         <v>GAS</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="76">
+      <c r="F14" s="75">
         <v>4.5</v>
       </c>
       <c r="G14" s="17"/>
-      <c r="I14" s="119" t="str">
+      <c r="I14" s="114" t="str">
         <f>'EB2'!$B$6</f>
         <v>IMP</v>
       </c>
-      <c r="J14" s="119"/>
-      <c r="K14" s="119" t="str">
+      <c r="J14" s="114"/>
+      <c r="K14" s="114" t="str">
         <f>$I$14&amp;$C$2&amp;1</f>
         <v>IMPGAS1</v>
       </c>
-      <c r="L14" s="122" t="str">
+      <c r="L14" s="117" t="str">
         <f>"Import of "&amp;$D$2&amp; " Step "&amp;RIGHT(K14,1)</f>
         <v>Import of Natural Gas Step 1</v>
       </c>
-      <c r="M14" s="119" t="str">
+      <c r="M14" s="114" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N14" s="119" t="str">
+      <c r="N14" s="114" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O14" s="119"/>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="119"/>
+      <c r="O14" s="114"/>
+      <c r="P14" s="114"/>
+      <c r="Q14" s="114"/>
     </row>
     <row r="15" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="11" t="str">
@@ -14200,50 +14106,50 @@
         <v>GAS</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="F15" s="76">
+      <c r="F15" s="75">
         <f>4.5*0.99</f>
         <v>4.4550000000000001</v>
       </c>
-      <c r="G15" s="72">
+      <c r="G15" s="71">
         <f>-'EB2'!E7</f>
         <v>1509.7986000000001</v>
       </c>
       <c r="H15"/>
-      <c r="I15" s="119" t="str">
+      <c r="I15" s="114" t="str">
         <f>'EB2'!B7</f>
         <v>EXP</v>
       </c>
-      <c r="J15" s="119"/>
-      <c r="K15" s="119" t="str">
+      <c r="J15" s="114"/>
+      <c r="K15" s="114" t="str">
         <f>$I$15&amp;$C$2&amp;1</f>
         <v>EXPGAS1</v>
       </c>
-      <c r="L15" s="122" t="str">
+      <c r="L15" s="117" t="str">
         <f>"Export of "&amp;$D$2&amp; " Step "&amp;RIGHT(K15,1)</f>
         <v>Export of Natural Gas Step 1</v>
       </c>
-      <c r="M15" s="119" t="str">
+      <c r="M15" s="114" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N15" s="119" t="str">
+      <c r="N15" s="114" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O15" s="119"/>
-      <c r="P15" s="119"/>
-      <c r="Q15" s="119"/>
+      <c r="O15" s="114"/>
+      <c r="P15" s="114"/>
+      <c r="Q15" s="114"/>
       <c r="R15"/>
     </row>
     <row r="16" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
     </row>
     <row r="17" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
-      <c r="F17" s="75"/>
+      <c r="F17" s="74"/>
     </row>
     <row r="18" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -14274,7 +14180,7 @@
       <c r="Q21" s="5"/>
     </row>
     <row r="23" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="67"/>
+      <c r="B23" s="66"/>
       <c r="C23" s="1" t="s">
         <v>124</v>
       </c>
@@ -14295,7 +14201,7 @@
       <c r="R23"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="73"/>
+      <c r="B24" s="72"/>
       <c r="C24" s="1" t="s">
         <v>125</v>
       </c>
@@ -14517,100 +14423,100 @@
         <f>'EB2'!Y2</f>
         <v>M€2005</v>
       </c>
-      <c r="I2" s="113" t="s">
+      <c r="I2" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="113"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="I3" s="115" t="s">
+      <c r="I3" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="116" t="s">
+      <c r="J3" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="115" t="s">
+      <c r="K3" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="115" t="s">
+      <c r="L3" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="115" t="s">
+      <c r="M3" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="115" t="s">
+      <c r="N3" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="115" t="s">
+      <c r="O3" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="115" t="s">
+      <c r="P3" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="115" t="s">
+      <c r="Q3" s="110" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
-      <c r="I4" s="117" t="s">
+      <c r="I4" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="117" t="s">
+      <c r="J4" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="117" t="s">
+      <c r="K4" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="117" t="s">
+      <c r="L4" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="117" t="s">
+      <c r="M4" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="117" t="s">
+      <c r="N4" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="117" t="s">
+      <c r="O4" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="117" t="s">
+      <c r="P4" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="117" t="s">
+      <c r="Q4" s="112" t="s">
         <v>29</v>
       </c>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="I5" s="118" t="s">
+      <c r="I5" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="J5" s="119"/>
-      <c r="K5" s="118" t="str">
+      <c r="J5" s="114"/>
+      <c r="K5" s="113" t="str">
         <f>C2</f>
         <v>OIL</v>
       </c>
-      <c r="L5" s="118" t="str">
+      <c r="L5" s="113" t="str">
         <f>D2</f>
         <v>Crude Oil</v>
       </c>
-      <c r="M5" s="118" t="str">
+      <c r="M5" s="113" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N5" s="118"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="118"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="113"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
@@ -14629,17 +14535,17 @@
         <v>13</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="I7" s="113" t="s">
+      <c r="I7" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="113"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="120"/>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
     </row>
@@ -14653,93 +14559,93 @@
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="86" t="s">
+      <c r="E8" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="86" t="s">
+      <c r="F8" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="86" t="s">
+      <c r="G8" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="115" t="s">
+      <c r="I8" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="116" t="s">
+      <c r="J8" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="115" t="s">
+      <c r="K8" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="115" t="s">
+      <c r="L8" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="115" t="s">
+      <c r="M8" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="115" t="s">
+      <c r="N8" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="115" t="s">
+      <c r="O8" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="115" t="s">
+      <c r="P8" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="115" t="s">
+      <c r="Q8" s="110" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="G9" s="53" t="s">
+      <c r="G9" s="52" t="s">
         <v>86</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="117" t="s">
+      <c r="I9" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="117" t="s">
+      <c r="J9" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="117" t="s">
+      <c r="K9" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="117" t="s">
+      <c r="L9" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="117" t="s">
+      <c r="M9" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="117" t="s">
+      <c r="N9" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="O9" s="117" t="s">
+      <c r="O9" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="P9" s="117" t="s">
+      <c r="P9" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="Q9" s="117" t="s">
+      <c r="Q9" s="112" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:23" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="52" t="s">
         <v>85</v>
       </c>
       <c r="C10" s="18"/>
@@ -14756,17 +14662,17 @@
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="I10" s="117" t="s">
+      <c r="I10" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="121"/>
-      <c r="P10" s="121"/>
-      <c r="Q10" s="121"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
       <c r="R10"/>
       <c r="V10"/>
       <c r="W10"/>
@@ -14781,40 +14687,40 @@
         <f>$K$5</f>
         <v>OIL</v>
       </c>
-      <c r="E11" s="67">
+      <c r="E11" s="66">
         <v>12000</v>
       </c>
-      <c r="F11" s="76">
+      <c r="F11" s="75">
         <v>6.4</v>
       </c>
-      <c r="G11" s="72">
+      <c r="G11" s="71">
         <f>'EB2'!$F$5*'EB2'!F21</f>
         <v>2149.0016000000001</v>
       </c>
-      <c r="I11" s="118" t="str">
+      <c r="I11" s="113" t="str">
         <f>'EB2'!$B$5</f>
         <v>MIN</v>
       </c>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119" t="str">
+      <c r="J11" s="114"/>
+      <c r="K11" s="114" t="str">
         <f>$I$11&amp;$C$2&amp;1</f>
         <v>MINOIL1</v>
       </c>
-      <c r="L11" s="122" t="str">
+      <c r="L11" s="117" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(K11,1)</f>
         <v>Domestic Supply of Crude Oil Step 1</v>
       </c>
-      <c r="M11" s="119" t="str">
+      <c r="M11" s="114" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N11" s="119" t="str">
+      <c r="N11" s="114" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O11" s="119"/>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="119"/>
+      <c r="O11" s="114"/>
+      <c r="P11" s="114"/>
+      <c r="Q11" s="114"/>
     </row>
     <row r="12" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="str">
@@ -14826,37 +14732,37 @@
         <f>$K$5</f>
         <v>OIL</v>
       </c>
-      <c r="E12" s="67">
+      <c r="E12" s="66">
         <v>10000</v>
       </c>
-      <c r="F12" s="76">
+      <c r="F12" s="75">
         <v>7.3599999999999994</v>
       </c>
-      <c r="G12" s="72">
+      <c r="G12" s="71">
         <f>'EB2'!$F$5*'EB2'!F22</f>
         <v>537.25040000000001</v>
       </c>
-      <c r="I12" s="119"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119" t="str">
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114" t="str">
         <f>$I$11&amp;$C$2&amp;2</f>
         <v>MINOIL2</v>
       </c>
-      <c r="L12" s="122" t="str">
+      <c r="L12" s="117" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(K12,1)</f>
         <v>Domestic Supply of Crude Oil Step 2</v>
       </c>
-      <c r="M12" s="119" t="str">
+      <c r="M12" s="114" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N12" s="119" t="str">
+      <c r="N12" s="114" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O12" s="119"/>
-      <c r="P12" s="119"/>
-      <c r="Q12" s="119"/>
+      <c r="O12" s="114"/>
+      <c r="P12" s="114"/>
+      <c r="Q12" s="114"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B13" s="11" t="str">
@@ -14868,36 +14774,36 @@
         <f>$K$5</f>
         <v>OIL</v>
       </c>
-      <c r="E13" s="67">
+      <c r="E13" s="66">
         <v>1200000</v>
       </c>
-      <c r="F13" s="76">
+      <c r="F13" s="75">
         <v>9.6000000000000014</v>
       </c>
-      <c r="G13" s="67">
+      <c r="G13" s="66">
         <v>5000</v>
       </c>
-      <c r="I13" s="119"/>
-      <c r="J13" s="119"/>
-      <c r="K13" s="119" t="str">
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114" t="str">
         <f>$I$11&amp;$C$2&amp;3</f>
         <v>MINOIL3</v>
       </c>
-      <c r="L13" s="122" t="str">
+      <c r="L13" s="117" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(K13,1)</f>
         <v>Domestic Supply of Crude Oil Step 3</v>
       </c>
-      <c r="M13" s="119" t="str">
+      <c r="M13" s="114" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N13" s="119" t="str">
+      <c r="N13" s="114" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O13" s="119"/>
-      <c r="P13" s="119"/>
-      <c r="Q13" s="119"/>
+      <c r="O13" s="114"/>
+      <c r="P13" s="114"/>
+      <c r="Q13" s="114"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
@@ -14916,34 +14822,34 @@
         <v>OIL</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="76">
+      <c r="F14" s="75">
         <v>8</v>
       </c>
       <c r="G14" s="16"/>
-      <c r="I14" s="119" t="str">
+      <c r="I14" s="114" t="str">
         <f>'EB2'!$B$6</f>
         <v>IMP</v>
       </c>
-      <c r="J14" s="119"/>
-      <c r="K14" s="119" t="str">
+      <c r="J14" s="114"/>
+      <c r="K14" s="114" t="str">
         <f>$I$14&amp;$C$2&amp;1</f>
         <v>IMPOIL1</v>
       </c>
-      <c r="L14" s="122" t="str">
+      <c r="L14" s="117" t="str">
         <f>"Import of "&amp;$D$2&amp; " Step "&amp;RIGHT(K14,1)</f>
         <v>Import of Crude Oil Step 1</v>
       </c>
-      <c r="M14" s="119" t="str">
+      <c r="M14" s="114" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N14" s="119" t="str">
+      <c r="N14" s="114" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O14" s="119"/>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="119"/>
+      <c r="O14" s="114"/>
+      <c r="P14" s="114"/>
+      <c r="Q14" s="114"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
@@ -14961,45 +14867,45 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="76">
+      <c r="F15" s="75">
         <f>8*0.99</f>
         <v>7.92</v>
       </c>
-      <c r="G15" s="71">
+      <c r="G15" s="70">
         <f>-'EB2'!F7</f>
         <v>1648.4854999999998</v>
       </c>
-      <c r="I15" s="119" t="str">
+      <c r="I15" s="114" t="str">
         <f>'EB2'!B7</f>
         <v>EXP</v>
       </c>
-      <c r="J15" s="119"/>
-      <c r="K15" s="119" t="str">
+      <c r="J15" s="114"/>
+      <c r="K15" s="114" t="str">
         <f>$I$15&amp;$C$2&amp;1</f>
         <v>EXPOIL1</v>
       </c>
-      <c r="L15" s="122" t="str">
+      <c r="L15" s="117" t="str">
         <f>"Export of "&amp;$D$2&amp; " Step "&amp;RIGHT(K15,1)</f>
         <v>Export of Crude Oil Step 1</v>
       </c>
-      <c r="M15" s="119" t="str">
+      <c r="M15" s="114" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N15" s="119" t="str">
+      <c r="N15" s="114" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O15" s="119"/>
-      <c r="P15" s="119"/>
-      <c r="Q15" s="119"/>
+      <c r="O15" s="114"/>
+      <c r="P15" s="114"/>
+      <c r="Q15" s="114"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
     </row>
     <row r="16" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
-      <c r="F16" s="75"/>
+      <c r="F16" s="74"/>
       <c r="R16"/>
       <c r="T16"/>
       <c r="U16"/>
@@ -15008,7 +14914,7 @@
     </row>
     <row r="17" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
-      <c r="F17" s="75"/>
+      <c r="F17" s="74"/>
       <c r="S17"/>
       <c r="T17"/>
       <c r="U17"/>
@@ -15077,14 +14983,14 @@
       <c r="W22"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B23" s="67"/>
+      <c r="B23" s="66"/>
       <c r="C23" s="1" t="s">
         <v>124</v>
       </c>
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B24" s="73"/>
+      <c r="B24" s="72"/>
       <c r="C24" s="1" t="s">
         <v>125</v>
       </c>
@@ -15187,17 +15093,17 @@
         <f>'EB2'!Y2</f>
         <v>M€2005</v>
       </c>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="113"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
     </row>
     <row r="3" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" s="15" t="str">
@@ -15212,31 +15118,31 @@
         <f>'EB2'!$Z$2</f>
         <v>PJ</v>
       </c>
-      <c r="H3" s="115" t="s">
+      <c r="H3" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="116" t="s">
+      <c r="I3" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="115" t="s">
+      <c r="J3" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="115" t="s">
+      <c r="K3" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="115" t="s">
+      <c r="L3" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="115" t="s">
+      <c r="M3" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="115" t="s">
+      <c r="N3" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="115" t="s">
+      <c r="O3" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="115" t="s">
+      <c r="P3" s="110" t="s">
         <v>12</v>
       </c>
     </row>
@@ -15254,31 +15160,31 @@
         <f>'EB2'!$Z$2</f>
         <v>PJ</v>
       </c>
-      <c r="H4" s="117" t="s">
+      <c r="H4" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="117" t="s">
+      <c r="I4" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="117" t="s">
+      <c r="J4" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="117" t="s">
+      <c r="K4" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="117" t="s">
+      <c r="L4" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="117" t="s">
+      <c r="M4" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="117" t="s">
+      <c r="N4" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="117" t="s">
+      <c r="O4" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="117" t="s">
+      <c r="P4" s="112" t="s">
         <v>29</v>
       </c>
     </row>
@@ -15295,110 +15201,110 @@
         <f>'EB2'!$Z$2</f>
         <v>PJ</v>
       </c>
-      <c r="H5" s="118" t="s">
+      <c r="H5" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="119"/>
-      <c r="J5" s="118" t="str">
+      <c r="I5" s="114"/>
+      <c r="J5" s="113" t="str">
         <f t="shared" ref="J5:K8" si="0">C2</f>
         <v>BIO</v>
       </c>
-      <c r="K5" s="118" t="str">
+      <c r="K5" s="113" t="str">
         <f t="shared" si="0"/>
         <v>Biomass</v>
       </c>
-      <c r="L5" s="118" t="str">
+      <c r="L5" s="113" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M5" s="118"/>
-      <c r="N5" s="118"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="118"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
     </row>
     <row r="6" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="118" t="str">
+      <c r="H6" s="113"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="113" t="str">
         <f t="shared" si="0"/>
         <v>HYD</v>
       </c>
-      <c r="K6" s="118" t="str">
+      <c r="K6" s="113" t="str">
         <f t="shared" si="0"/>
         <v>Hydro power</v>
       </c>
-      <c r="L6" s="118" t="str">
+      <c r="L6" s="113" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M6" s="118"/>
-      <c r="N6" s="118"/>
-      <c r="O6" s="118"/>
-      <c r="P6" s="118"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="113"/>
+      <c r="O6" s="113"/>
+      <c r="P6" s="113"/>
     </row>
     <row r="7" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="118" t="str">
+      <c r="H7" s="113"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="113" t="str">
         <f t="shared" si="0"/>
         <v>WIN</v>
       </c>
-      <c r="K7" s="118" t="str">
+      <c r="K7" s="113" t="str">
         <f t="shared" si="0"/>
         <v>Wind energy</v>
       </c>
-      <c r="L7" s="118" t="str">
+      <c r="L7" s="113" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M7" s="118"/>
-      <c r="N7" s="118"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="118"/>
+      <c r="M7" s="113"/>
+      <c r="N7" s="113"/>
+      <c r="O7" s="113"/>
+      <c r="P7" s="113"/>
     </row>
     <row r="8" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="118" t="str">
+      <c r="H8" s="113"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="113" t="str">
         <f t="shared" si="0"/>
         <v>SOL</v>
       </c>
-      <c r="K8" s="118" t="str">
+      <c r="K8" s="113" t="str">
         <f t="shared" si="0"/>
         <v>Solar energy</v>
       </c>
-      <c r="L8" s="118" t="str">
+      <c r="L8" s="113" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M8" s="118"/>
-      <c r="N8" s="118"/>
-      <c r="O8" s="118"/>
-      <c r="P8" s="118"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="113"/>
+      <c r="O8" s="113"/>
+      <c r="P8" s="113"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="H10" s="113" t="s">
+      <c r="H10" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="113"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="120"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="115"/>
+      <c r="N10" s="115"/>
+      <c r="O10" s="115"/>
+      <c r="P10" s="115"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
@@ -15410,86 +15316,86 @@
       <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="86" t="s">
+      <c r="E11" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="86" t="s">
+      <c r="F11" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="115" t="s">
+      <c r="H11" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="116" t="s">
+      <c r="I11" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="115" t="s">
+      <c r="J11" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="K11" s="115" t="s">
+      <c r="K11" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="L11" s="115" t="s">
+      <c r="L11" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="115" t="s">
+      <c r="M11" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="115" t="s">
+      <c r="N11" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="115" t="s">
+      <c r="O11" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="115" t="s">
+      <c r="P11" s="110" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="F12" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="117" t="s">
+      <c r="H12" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="117" t="s">
+      <c r="I12" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="117" t="s">
+      <c r="J12" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="117" t="s">
+      <c r="K12" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="117" t="s">
+      <c r="L12" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="117" t="s">
+      <c r="M12" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="N12" s="117" t="s">
+      <c r="N12" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="O12" s="117" t="s">
+      <c r="O12" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="P12" s="117" t="s">
+      <c r="P12" s="112" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:17" s="37" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="52" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="18"/>
@@ -15503,17 +15409,17 @@
         <v>PJ</v>
       </c>
       <c r="G13" s="35"/>
-      <c r="H13" s="117" t="s">
+      <c r="H13" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="I13" s="121"/>
-      <c r="J13" s="121"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="121"/>
-      <c r="M13" s="121"/>
-      <c r="N13" s="121"/>
-      <c r="O13" s="121"/>
-      <c r="P13" s="121"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="116"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="116"/>
       <c r="Q13" s="35"/>
     </row>
     <row r="14" spans="2:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
@@ -15526,34 +15432,34 @@
         <f>J5</f>
         <v>BIO</v>
       </c>
-      <c r="E14" s="76">
+      <c r="E14" s="75">
         <v>3.1049999999999995</v>
       </c>
       <c r="F14" s="5"/>
-      <c r="H14" s="118" t="str">
+      <c r="H14" s="113" t="str">
         <f>'EB2'!$B$5</f>
         <v>MIN</v>
       </c>
-      <c r="I14" s="119"/>
-      <c r="J14" s="119" t="str">
+      <c r="I14" s="114"/>
+      <c r="J14" s="114" t="str">
         <f>$H$14&amp;C2&amp;1</f>
         <v>MINBIO1</v>
       </c>
-      <c r="K14" s="122" t="str">
+      <c r="K14" s="117" t="str">
         <f>"Domestic Supply of "&amp;D2&amp; " Step "&amp;RIGHT(J14,1)</f>
         <v>Domestic Supply of Biomass Step 1</v>
       </c>
-      <c r="L14" s="119" t="str">
+      <c r="L14" s="114" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M14" s="119" t="str">
+      <c r="M14" s="114" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="N14" s="119"/>
-      <c r="O14" s="119"/>
-      <c r="P14" s="119"/>
+      <c r="N14" s="114"/>
+      <c r="O14" s="114"/>
+      <c r="P14" s="114"/>
     </row>
     <row r="15" spans="2:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="11" t="str">
@@ -15567,27 +15473,27 @@
       </c>
       <c r="E15" s="34"/>
       <c r="F15" s="5"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="119" t="str">
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="114" t="str">
         <f>$H$14&amp;C3&amp;1</f>
         <v>MINHYD1</v>
       </c>
-      <c r="K15" s="122" t="str">
+      <c r="K15" s="117" t="str">
         <f>"Domestic Supply of "&amp;D3&amp; " Step "&amp;RIGHT(J15,1)</f>
         <v>Domestic Supply of Hydro power Step 1</v>
       </c>
-      <c r="L15" s="119" t="str">
+      <c r="L15" s="114" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M15" s="119" t="str">
+      <c r="M15" s="114" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="N15" s="119"/>
-      <c r="O15" s="119"/>
-      <c r="P15" s="119"/>
+      <c r="N15" s="114"/>
+      <c r="O15" s="114"/>
+      <c r="P15" s="114"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="str">
@@ -15602,27 +15508,27 @@
       <c r="E16" s="34"/>
       <c r="F16" s="5"/>
       <c r="G16" s="37"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="119" t="str">
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114" t="str">
         <f>$H$14&amp;C4&amp;1</f>
         <v>MINWIN1</v>
       </c>
-      <c r="K16" s="122" t="str">
+      <c r="K16" s="117" t="str">
         <f>"Domestic Supply of "&amp;D4&amp; " Step "&amp;RIGHT(J16,1)</f>
         <v>Domestic Supply of Wind energy Step 1</v>
       </c>
-      <c r="L16" s="119" t="str">
+      <c r="L16" s="114" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M16" s="119" t="str">
+      <c r="M16" s="114" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="N16" s="119"/>
-      <c r="O16" s="119"/>
-      <c r="P16" s="119"/>
+      <c r="N16" s="114"/>
+      <c r="O16" s="114"/>
+      <c r="P16" s="114"/>
       <c r="Q16" s="37"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.2">
@@ -15637,27 +15543,27 @@
       </c>
       <c r="E17" s="34"/>
       <c r="F17" s="5"/>
-      <c r="H17" s="119"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="119" t="str">
+      <c r="H17" s="114"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="114" t="str">
         <f>$H$14&amp;C5&amp;1</f>
         <v>MINSOL1</v>
       </c>
-      <c r="K17" s="122" t="str">
+      <c r="K17" s="117" t="str">
         <f>"Domestic Supply of "&amp;D5&amp; " Step "&amp;RIGHT(J17,1)</f>
         <v>Domestic Supply of Solar energy Step 1</v>
       </c>
-      <c r="L17" s="119" t="str">
+      <c r="L17" s="114" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M17" s="119" t="str">
+      <c r="M17" s="114" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="N17" s="119"/>
-      <c r="O17" s="119"/>
-      <c r="P17" s="119"/>
+      <c r="N17" s="114"/>
+      <c r="O17" s="114"/>
+      <c r="P17" s="114"/>
     </row>
     <row r="18" spans="2:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="11"/>
@@ -15692,7 +15598,7 @@
       <c r="P19" s="5"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B20" s="67"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="1" t="s">
         <v>124</v>
       </c>
@@ -15712,7 +15618,7 @@
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B21" s="73"/>
+      <c r="B21" s="72"/>
       <c r="C21" s="1" t="s">
         <v>125</v>
       </c>
@@ -15926,116 +15832,116 @@
         <f>'EB2'!Y2</f>
         <v>M€2005</v>
       </c>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="113"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E3" s="14"/>
-      <c r="H3" s="115" t="s">
+      <c r="H3" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="116" t="s">
+      <c r="I3" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="115" t="s">
+      <c r="J3" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="115" t="s">
+      <c r="K3" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="115" t="s">
+      <c r="L3" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="115" t="s">
+      <c r="M3" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="115" t="s">
+      <c r="N3" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="115" t="s">
+      <c r="O3" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="115" t="s">
+      <c r="P3" s="110" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="H4" s="117" t="s">
+      <c r="H4" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="117" t="s">
+      <c r="I4" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="117" t="s">
+      <c r="J4" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="117" t="s">
+      <c r="K4" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="117" t="s">
+      <c r="L4" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="117" t="s">
+      <c r="M4" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="117" t="s">
+      <c r="N4" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="117" t="s">
+      <c r="O4" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="117" t="s">
+      <c r="P4" s="112" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="H5" s="118" t="s">
+      <c r="H5" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="119"/>
-      <c r="J5" s="118" t="str">
+      <c r="I5" s="114"/>
+      <c r="J5" s="113" t="str">
         <f>C2</f>
         <v>NUC</v>
       </c>
-      <c r="K5" s="118" t="str">
+      <c r="K5" s="113" t="str">
         <f>D2</f>
         <v>Nuclear Energy</v>
       </c>
-      <c r="L5" s="118" t="str">
+      <c r="L5" s="113" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M5" s="118"/>
-      <c r="N5" s="118"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="118"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="H7" s="113" t="s">
+      <c r="H7" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="113"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="120"/>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
@@ -16047,86 +15953,86 @@
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="86" t="s">
+      <c r="E8" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="86" t="s">
+      <c r="F8" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="115" t="s">
+      <c r="H8" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="116" t="s">
+      <c r="I8" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="115" t="s">
+      <c r="J8" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="115" t="s">
+      <c r="K8" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="115" t="s">
+      <c r="L8" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="115" t="s">
+      <c r="M8" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="115" t="s">
+      <c r="N8" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="115" t="s">
+      <c r="O8" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="115" t="s">
+      <c r="P8" s="110" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="H9" s="117" t="s">
+      <c r="H9" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="117" t="s">
+      <c r="I9" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="117" t="s">
+      <c r="J9" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="117" t="s">
+      <c r="K9" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="117" t="s">
+      <c r="L9" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="117" t="s">
+      <c r="M9" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="117" t="s">
+      <c r="N9" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="O9" s="117" t="s">
+      <c r="O9" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="117" t="s">
+      <c r="P9" s="112" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:17" s="37" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="52" t="s">
         <v>85</v>
       </c>
       <c r="C10" s="18"/>
@@ -16140,17 +16046,17 @@
         <v>PJ</v>
       </c>
       <c r="G10" s="35"/>
-      <c r="H10" s="117" t="s">
+      <c r="H10" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="121"/>
-      <c r="P10" s="121"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
       <c r="Q10" s="35"/>
     </row>
     <row r="11" spans="2:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
@@ -16167,30 +16073,30 @@
         <v>0.25</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="H11" s="118" t="str">
+      <c r="H11" s="113" t="str">
         <f>'EB2'!$B$5</f>
         <v>MIN</v>
       </c>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119" t="str">
+      <c r="I11" s="114"/>
+      <c r="J11" s="114" t="str">
         <f>$H$11&amp;$C$2&amp;1</f>
         <v>MINNUC1</v>
       </c>
-      <c r="K11" s="122" t="str">
+      <c r="K11" s="117" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(J11,1)</f>
         <v>Domestic Supply of Nuclear Energy Step 1</v>
       </c>
-      <c r="L11" s="119" t="str">
+      <c r="L11" s="114" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M11" s="119" t="str">
+      <c r="M11" s="114" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="N11" s="119"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="119"/>
+      <c r="N11" s="114"/>
+      <c r="O11" s="114"/>
+      <c r="P11" s="114"/>
     </row>
     <row r="12" spans="2:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11"/>
@@ -16374,7 +16280,7 @@
       <c r="P22" s="5"/>
     </row>
     <row r="23" spans="2:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="67"/>
+      <c r="B23" s="66"/>
       <c r="C23" s="1" t="s">
         <v>124</v>
       </c>
@@ -16394,7 +16300,7 @@
       <c r="Q23" s="35"/>
     </row>
     <row r="24" spans="2:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="73"/>
+      <c r="B24" s="72"/>
       <c r="C24" s="1" t="s">
         <v>125</v>
       </c>
@@ -16533,17 +16439,17 @@
         <f>'EB2'!Y2</f>
         <v>M€2005</v>
       </c>
-      <c r="H2" s="123" t="s">
+      <c r="H2" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" s="15" t="str">
@@ -16558,31 +16464,31 @@
         <f>'EB2'!$Z$2</f>
         <v>PJ</v>
       </c>
-      <c r="H3" s="125" t="s">
+      <c r="H3" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="126" t="s">
+      <c r="I3" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="125" t="s">
+      <c r="J3" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="125" t="s">
+      <c r="K3" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="125" t="s">
+      <c r="L3" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="125" t="s">
+      <c r="M3" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="125" t="s">
+      <c r="N3" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="125" t="s">
+      <c r="O3" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="125" t="s">
+      <c r="P3" s="120" t="s">
         <v>12</v>
       </c>
     </row>
@@ -16599,31 +16505,31 @@
         <f>'EB2'!$Z$2</f>
         <v>PJ</v>
       </c>
-      <c r="H4" s="117" t="s">
+      <c r="H4" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="117" t="s">
+      <c r="I4" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="117" t="s">
+      <c r="J4" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="117" t="s">
+      <c r="K4" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="117" t="s">
+      <c r="L4" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="117" t="s">
+      <c r="M4" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="117" t="s">
+      <c r="N4" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="117" t="s">
+      <c r="O4" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="117" t="s">
+      <c r="P4" s="112" t="s">
         <v>29</v>
       </c>
       <c r="S4" s="37"/>
@@ -16642,26 +16548,26 @@
         <f>'EB2'!$Z$2</f>
         <v>PJ</v>
       </c>
-      <c r="H5" s="127" t="s">
+      <c r="H5" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="128"/>
-      <c r="J5" s="127" t="str">
+      <c r="I5" s="123"/>
+      <c r="J5" s="122" t="str">
         <f t="shared" ref="J5:K11" si="0">C2</f>
         <v>DSL</v>
       </c>
-      <c r="K5" s="127" t="str">
+      <c r="K5" s="122" t="str">
         <f t="shared" si="0"/>
         <v>Diesel oil</v>
       </c>
-      <c r="L5" s="127" t="str">
+      <c r="L5" s="122" t="str">
         <f t="shared" ref="L5:L11" si="1">$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="127"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="122"/>
+      <c r="P5" s="122"/>
       <c r="R5" s="37"/>
       <c r="S5" s="37"/>
       <c r="T5" s="37"/>
@@ -16681,24 +16587,24 @@
         <f>'EB2'!$Z$2</f>
         <v>PJ</v>
       </c>
-      <c r="H6" s="127"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="127" t="str">
+      <c r="H6" s="122"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="122" t="str">
         <f t="shared" si="0"/>
         <v>KER</v>
       </c>
-      <c r="K6" s="127" t="str">
+      <c r="K6" s="122" t="str">
         <f t="shared" si="0"/>
         <v>Kerosenes</v>
       </c>
-      <c r="L6" s="127" t="str">
+      <c r="L6" s="122" t="str">
         <f t="shared" si="1"/>
         <v>PJ</v>
       </c>
-      <c r="M6" s="127"/>
-      <c r="N6" s="127"/>
-      <c r="O6" s="127"/>
-      <c r="P6" s="127"/>
+      <c r="M6" s="122"/>
+      <c r="N6" s="122"/>
+      <c r="O6" s="122"/>
+      <c r="P6" s="122"/>
       <c r="R6" s="37"/>
       <c r="S6" s="37"/>
       <c r="T6" s="37"/>
@@ -16718,24 +16624,24 @@
         <f>'EB2'!$Z$2</f>
         <v>PJ</v>
       </c>
-      <c r="H7" s="127"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="127" t="str">
+      <c r="H7" s="122"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="122" t="str">
         <f t="shared" si="0"/>
         <v>LPG</v>
       </c>
-      <c r="K7" s="127" t="str">
+      <c r="K7" s="122" t="str">
         <f t="shared" si="0"/>
         <v>LPG</v>
       </c>
-      <c r="L7" s="127" t="str">
+      <c r="L7" s="122" t="str">
         <f t="shared" si="1"/>
         <v>PJ</v>
       </c>
-      <c r="M7" s="127"/>
-      <c r="N7" s="127"/>
-      <c r="O7" s="127"/>
-      <c r="P7" s="127"/>
+      <c r="M7" s="122"/>
+      <c r="N7" s="122"/>
+      <c r="O7" s="122"/>
+      <c r="P7" s="122"/>
       <c r="R7" s="37"/>
       <c r="S7" s="37"/>
       <c r="U7" s="37"/>
@@ -16754,46 +16660,46 @@
         <f>'EB2'!$Z$2</f>
         <v>PJ</v>
       </c>
-      <c r="H8" s="127"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="127" t="str">
+      <c r="H8" s="122"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="122" t="str">
         <f t="shared" si="0"/>
         <v>GSL</v>
       </c>
-      <c r="K8" s="127" t="str">
+      <c r="K8" s="122" t="str">
         <f t="shared" si="0"/>
         <v>Motor spirit</v>
       </c>
-      <c r="L8" s="127" t="str">
+      <c r="L8" s="122" t="str">
         <f t="shared" si="1"/>
         <v>PJ</v>
       </c>
-      <c r="M8" s="127"/>
-      <c r="N8" s="127"/>
-      <c r="O8" s="127"/>
-      <c r="P8" s="127"/>
+      <c r="M8" s="122"/>
+      <c r="N8" s="122"/>
+      <c r="O8" s="122"/>
+      <c r="P8" s="122"/>
       <c r="R8" s="37"/>
       <c r="S8" s="37"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="H9" s="127"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="127" t="str">
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="122" t="str">
         <f t="shared" si="0"/>
         <v>NAP</v>
       </c>
-      <c r="K9" s="127" t="str">
+      <c r="K9" s="122" t="str">
         <f t="shared" si="0"/>
         <v>Naphtha</v>
       </c>
-      <c r="L9" s="127" t="str">
+      <c r="L9" s="122" t="str">
         <f t="shared" si="1"/>
         <v>PJ</v>
       </c>
-      <c r="M9" s="127"/>
-      <c r="N9" s="127"/>
-      <c r="O9" s="127"/>
-      <c r="P9" s="127"/>
+      <c r="M9" s="122"/>
+      <c r="N9" s="122"/>
+      <c r="O9" s="122"/>
+      <c r="P9" s="122"/>
       <c r="R9" s="37"/>
       <c r="S9" s="37"/>
     </row>
@@ -16803,47 +16709,47 @@
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="127" t="str">
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="122" t="str">
         <f t="shared" si="0"/>
         <v>HFO</v>
       </c>
-      <c r="K10" s="127" t="str">
+      <c r="K10" s="122" t="str">
         <f t="shared" si="0"/>
         <v>Heavy Fuel Oil</v>
       </c>
-      <c r="L10" s="127" t="str">
+      <c r="L10" s="122" t="str">
         <f t="shared" si="1"/>
         <v>PJ</v>
       </c>
-      <c r="M10" s="127"/>
-      <c r="N10" s="127"/>
-      <c r="O10" s="127"/>
-      <c r="P10" s="127"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="122"/>
+      <c r="P10" s="122"/>
       <c r="Q10" s="35"/>
       <c r="U10" s="35"/>
       <c r="V10" s="35"/>
     </row>
     <row r="11" spans="2:22" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="127" t="str">
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="122" t="str">
         <f t="shared" si="0"/>
         <v>OPP</v>
       </c>
-      <c r="K11" s="127" t="str">
+      <c r="K11" s="122" t="str">
         <f t="shared" si="0"/>
         <v>Other Petroleum Products</v>
       </c>
-      <c r="L11" s="127" t="str">
+      <c r="L11" s="122" t="str">
         <f t="shared" si="1"/>
         <v>PJ</v>
       </c>
-      <c r="M11" s="127"/>
-      <c r="N11" s="127"/>
-      <c r="O11" s="127"/>
-      <c r="P11" s="127"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="122"/>
+      <c r="O11" s="122"/>
+      <c r="P11" s="122"/>
       <c r="Q11" s="35"/>
     </row>
     <row r="12" spans="2:22" s="37" customFormat="1" x14ac:dyDescent="0.2">
@@ -16863,62 +16769,62 @@
         <v>13</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="H13" s="123" t="s">
+      <c r="H13" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="123"/>
-      <c r="J13" s="129"/>
-      <c r="K13" s="129"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="129"/>
-      <c r="N13" s="129"/>
-      <c r="O13" s="129"/>
-      <c r="P13" s="129"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="124"/>
+      <c r="O13" s="124"/>
+      <c r="P13" s="124"/>
       <c r="T13" s="37"/>
       <c r="U13" s="37"/>
       <c r="V13" s="37"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="85" t="s">
+      <c r="E14" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="85" t="s">
+      <c r="F14" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="125" t="s">
+      <c r="H14" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="126" t="s">
+      <c r="I14" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="125" t="s">
+      <c r="J14" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="125" t="s">
+      <c r="K14" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="L14" s="125" t="s">
+      <c r="L14" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="125" t="s">
+      <c r="M14" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="125" t="s">
+      <c r="N14" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="O14" s="125" t="s">
+      <c r="O14" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="P14" s="125" t="s">
+      <c r="P14" s="120" t="s">
         <v>20</v>
       </c>
       <c r="T14" s="37"/>
@@ -16935,37 +16841,37 @@
       <c r="D15" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="117" t="s">
+      <c r="H15" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="117" t="s">
+      <c r="I15" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="117" t="s">
+      <c r="J15" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="117" t="s">
+      <c r="K15" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="117" t="s">
+      <c r="L15" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="117" t="s">
+      <c r="M15" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="N15" s="117" t="s">
+      <c r="N15" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="O15" s="117" t="s">
+      <c r="O15" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="P15" s="117" t="s">
+      <c r="P15" s="112" t="s">
         <v>25</v>
       </c>
       <c r="U15" s="37"/>
@@ -16986,17 +16892,17 @@
         <v>PJ</v>
       </c>
       <c r="G16" s="35"/>
-      <c r="H16" s="117" t="s">
+      <c r="H16" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="I16" s="121"/>
-      <c r="J16" s="121"/>
-      <c r="K16" s="121"/>
-      <c r="L16" s="121"/>
-      <c r="M16" s="121"/>
-      <c r="N16" s="121"/>
-      <c r="O16" s="121"/>
-      <c r="P16" s="121"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
+      <c r="M16" s="116"/>
+      <c r="N16" s="116"/>
+      <c r="O16" s="116"/>
+      <c r="P16" s="116"/>
       <c r="Q16" s="35"/>
       <c r="T16" s="35"/>
       <c r="U16" s="35"/>
@@ -17012,32 +16918,32 @@
         <f t="shared" ref="D17:D23" si="3">C2</f>
         <v>DSL</v>
       </c>
-      <c r="E17" s="76">
+      <c r="E17" s="75">
         <f>Pri_OIL!$F$14*1.3</f>
         <v>10.4</v>
       </c>
-      <c r="F17" s="71"/>
-      <c r="H17" s="128" t="str">
+      <c r="F17" s="70"/>
+      <c r="H17" s="123" t="str">
         <f>'EB2'!$B$6</f>
         <v>IMP</v>
       </c>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128" t="str">
+      <c r="I17" s="123"/>
+      <c r="J17" s="123" t="str">
         <f t="shared" ref="J17:J23" si="4">$H$17&amp;C2&amp;1</f>
         <v>IMPDSL1</v>
       </c>
-      <c r="K17" s="130" t="str">
+      <c r="K17" s="125" t="str">
         <f t="shared" ref="K17:K23" si="5">"Import of "&amp;D2&amp; " Step "&amp;RIGHT(J17,1)</f>
         <v>Import of Diesel oil Step 1</v>
       </c>
-      <c r="L17" s="128" t="str">
+      <c r="L17" s="123" t="str">
         <f t="shared" ref="L17:L30" si="6">$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M17" s="128"/>
-      <c r="N17" s="128"/>
-      <c r="O17" s="128"/>
-      <c r="P17" s="128"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="123"/>
       <c r="Q17" s="35"/>
       <c r="T17" s="35"/>
       <c r="U17" s="35"/>
@@ -17053,29 +16959,29 @@
         <f t="shared" si="3"/>
         <v>KER</v>
       </c>
-      <c r="E18" s="76">
+      <c r="E18" s="75">
         <f>Pri_OIL!$F$14*1.4</f>
         <v>11.2</v>
       </c>
-      <c r="F18" s="71"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="128" t="str">
+      <c r="F18" s="70"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="123" t="str">
         <f t="shared" si="4"/>
         <v>IMPKER1</v>
       </c>
-      <c r="K18" s="130" t="str">
+      <c r="K18" s="125" t="str">
         <f t="shared" si="5"/>
         <v>Import of Kerosenes Step 1</v>
       </c>
-      <c r="L18" s="128" t="str">
+      <c r="L18" s="123" t="str">
         <f t="shared" si="6"/>
         <v>PJ</v>
       </c>
-      <c r="M18" s="128"/>
-      <c r="N18" s="128"/>
-      <c r="O18" s="128"/>
-      <c r="P18" s="128"/>
+      <c r="M18" s="123"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="123"/>
       <c r="T18" s="36"/>
       <c r="U18" s="35"/>
       <c r="V18" s="35"/>
@@ -17090,29 +16996,29 @@
         <f t="shared" si="3"/>
         <v>LPG</v>
       </c>
-      <c r="E19" s="76">
+      <c r="E19" s="75">
         <f>Pri_OIL!$F$14*1.1</f>
         <v>8.8000000000000007</v>
       </c>
-      <c r="F19" s="71"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="128" t="str">
+      <c r="F19" s="70"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="123" t="str">
         <f t="shared" si="4"/>
         <v>IMPLPG1</v>
       </c>
-      <c r="K19" s="130" t="str">
+      <c r="K19" s="125" t="str">
         <f t="shared" si="5"/>
         <v>Import of LPG Step 1</v>
       </c>
-      <c r="L19" s="128" t="str">
+      <c r="L19" s="123" t="str">
         <f t="shared" si="6"/>
         <v>PJ</v>
       </c>
-      <c r="M19" s="128"/>
-      <c r="N19" s="128"/>
-      <c r="O19" s="128"/>
-      <c r="P19" s="128"/>
+      <c r="M19" s="123"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="123"/>
       <c r="T19" s="35"/>
       <c r="U19" s="36"/>
       <c r="V19" s="36"/>
@@ -17127,29 +17033,29 @@
         <f t="shared" si="3"/>
         <v>GSL</v>
       </c>
-      <c r="E20" s="76">
+      <c r="E20" s="75">
         <f>Pri_OIL!$F$14*1.4</f>
         <v>11.2</v>
       </c>
-      <c r="F20" s="71"/>
-      <c r="H20" s="128"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="128" t="str">
+      <c r="F20" s="70"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="123" t="str">
         <f t="shared" si="4"/>
         <v>IMPGSL1</v>
       </c>
-      <c r="K20" s="130" t="str">
+      <c r="K20" s="125" t="str">
         <f t="shared" si="5"/>
         <v>Import of Motor spirit Step 1</v>
       </c>
-      <c r="L20" s="128" t="str">
+      <c r="L20" s="123" t="str">
         <f t="shared" si="6"/>
         <v>PJ</v>
       </c>
-      <c r="M20" s="128"/>
-      <c r="N20" s="128"/>
-      <c r="O20" s="128"/>
-      <c r="P20" s="128"/>
+      <c r="M20" s="123"/>
+      <c r="N20" s="123"/>
+      <c r="O20" s="123"/>
+      <c r="P20" s="123"/>
       <c r="T20" s="35"/>
       <c r="U20" s="35"/>
       <c r="V20" s="35"/>
@@ -17164,29 +17070,29 @@
         <f t="shared" si="3"/>
         <v>NAP</v>
       </c>
-      <c r="E21" s="76">
+      <c r="E21" s="75">
         <f>Pri_OIL!$F$14*1.05</f>
         <v>8.4</v>
       </c>
-      <c r="F21" s="71"/>
-      <c r="H21" s="128"/>
-      <c r="I21" s="128"/>
-      <c r="J21" s="128" t="str">
+      <c r="F21" s="70"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="123" t="str">
         <f t="shared" si="4"/>
         <v>IMPNAP1</v>
       </c>
-      <c r="K21" s="130" t="str">
+      <c r="K21" s="125" t="str">
         <f t="shared" si="5"/>
         <v>Import of Naphtha Step 1</v>
       </c>
-      <c r="L21" s="128" t="str">
+      <c r="L21" s="123" t="str">
         <f t="shared" si="6"/>
         <v>PJ</v>
       </c>
-      <c r="M21" s="128"/>
-      <c r="N21" s="128"/>
-      <c r="O21" s="128"/>
-      <c r="P21" s="128"/>
+      <c r="M21" s="123"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="123"/>
       <c r="R21" s="35"/>
       <c r="S21" s="35"/>
       <c r="T21" s="35"/>
@@ -17203,29 +17109,29 @@
         <f t="shared" si="3"/>
         <v>HFO</v>
       </c>
-      <c r="E22" s="76">
+      <c r="E22" s="75">
         <f>Pri_OIL!$F$14*1.05</f>
         <v>8.4</v>
       </c>
-      <c r="F22" s="71"/>
-      <c r="H22" s="128"/>
-      <c r="I22" s="128"/>
-      <c r="J22" s="128" t="str">
+      <c r="F22" s="70"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="123" t="str">
         <f t="shared" si="4"/>
         <v>IMPHFO1</v>
       </c>
-      <c r="K22" s="130" t="str">
+      <c r="K22" s="125" t="str">
         <f t="shared" si="5"/>
         <v>Import of Heavy Fuel Oil Step 1</v>
       </c>
-      <c r="L22" s="128" t="str">
+      <c r="L22" s="123" t="str">
         <f t="shared" si="6"/>
         <v>PJ</v>
       </c>
-      <c r="M22" s="128"/>
-      <c r="N22" s="128"/>
-      <c r="O22" s="128"/>
-      <c r="P22" s="128"/>
+      <c r="M22" s="123"/>
+      <c r="N22" s="123"/>
+      <c r="O22" s="123"/>
+      <c r="P22" s="123"/>
       <c r="Q22" s="35"/>
       <c r="S22" s="35"/>
       <c r="T22" s="35"/>
@@ -17242,30 +17148,30 @@
         <f t="shared" si="3"/>
         <v>OPP</v>
       </c>
-      <c r="E23" s="76">
+      <c r="E23" s="75">
         <f>Pri_OIL!$F$14*1.05</f>
         <v>8.4</v>
       </c>
-      <c r="F23" s="71"/>
+      <c r="F23" s="70"/>
       <c r="G23" s="37"/>
-      <c r="H23" s="128"/>
-      <c r="I23" s="128"/>
-      <c r="J23" s="128" t="str">
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="123" t="str">
         <f t="shared" si="4"/>
         <v>IMPOPP1</v>
       </c>
-      <c r="K23" s="130" t="str">
+      <c r="K23" s="125" t="str">
         <f t="shared" si="5"/>
         <v>Import of Other Petroleum Products Step 1</v>
       </c>
-      <c r="L23" s="128" t="str">
+      <c r="L23" s="123" t="str">
         <f t="shared" si="6"/>
         <v>PJ</v>
       </c>
-      <c r="M23" s="128"/>
-      <c r="N23" s="128"/>
-      <c r="O23" s="128"/>
-      <c r="P23" s="128"/>
+      <c r="M23" s="123"/>
+      <c r="N23" s="123"/>
+      <c r="O23" s="123"/>
+      <c r="P23" s="123"/>
       <c r="Q23" s="37"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
@@ -17278,35 +17184,35 @@
         <v>DSL</v>
       </c>
       <c r="D24" s="44"/>
-      <c r="E24" s="76">
+      <c r="E24" s="75">
         <f t="shared" ref="E24:E29" si="8">E17*0.99</f>
         <v>10.295999999999999</v>
       </c>
-      <c r="F24" s="71">
+      <c r="F24" s="70">
         <f>-'EB2'!G$7</f>
         <v>1683.1424999999999</v>
       </c>
-      <c r="H24" s="128" t="str">
+      <c r="H24" s="123" t="str">
         <f>'EB2'!B7</f>
         <v>EXP</v>
       </c>
-      <c r="I24" s="129"/>
-      <c r="J24" s="128" t="str">
+      <c r="I24" s="124"/>
+      <c r="J24" s="123" t="str">
         <f t="shared" ref="J24:J30" si="9">$H$24&amp;C2&amp;1</f>
         <v>EXPDSL1</v>
       </c>
-      <c r="K24" s="130" t="str">
+      <c r="K24" s="125" t="str">
         <f t="shared" ref="K24:K30" si="10">"Export of "&amp;D2&amp; " Step "&amp;RIGHT(J24,1)</f>
         <v>Export of Diesel oil Step 1</v>
       </c>
-      <c r="L24" s="128" t="str">
+      <c r="L24" s="123" t="str">
         <f t="shared" si="6"/>
         <v>PJ</v>
       </c>
-      <c r="M24" s="128"/>
-      <c r="N24" s="129"/>
-      <c r="O24" s="128"/>
-      <c r="P24" s="128"/>
+      <c r="M24" s="123"/>
+      <c r="N24" s="124"/>
+      <c r="O24" s="123"/>
+      <c r="P24" s="123"/>
       <c r="Q24" s="37"/>
       <c r="S24" s="36"/>
     </row>
@@ -17320,32 +17226,32 @@
         <v>KER</v>
       </c>
       <c r="D25" s="44"/>
-      <c r="E25" s="76">
+      <c r="E25" s="75">
         <f t="shared" si="8"/>
         <v>11.087999999999999</v>
       </c>
-      <c r="F25" s="71">
+      <c r="F25" s="70">
         <f>-'EB2'!H$7</f>
         <v>295.38850000000002</v>
       </c>
-      <c r="H25" s="129"/>
-      <c r="I25" s="129"/>
-      <c r="J25" s="128" t="str">
+      <c r="H25" s="124"/>
+      <c r="I25" s="124"/>
+      <c r="J25" s="123" t="str">
         <f t="shared" si="9"/>
         <v>EXPKER1</v>
       </c>
-      <c r="K25" s="130" t="str">
+      <c r="K25" s="125" t="str">
         <f t="shared" si="10"/>
         <v>Export of Kerosenes Step 1</v>
       </c>
-      <c r="L25" s="128" t="str">
+      <c r="L25" s="123" t="str">
         <f t="shared" si="6"/>
         <v>PJ</v>
       </c>
-      <c r="M25" s="128"/>
-      <c r="N25" s="129"/>
-      <c r="O25" s="128"/>
-      <c r="P25" s="128"/>
+      <c r="M25" s="123"/>
+      <c r="N25" s="124"/>
+      <c r="O25" s="123"/>
+      <c r="P25" s="123"/>
       <c r="R25" s="36"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.2">
@@ -17358,32 +17264,32 @@
         <v>LPG</v>
       </c>
       <c r="D26" s="44"/>
-      <c r="E26" s="76">
+      <c r="E26" s="75">
         <f t="shared" si="8"/>
         <v>8.7119999999999997</v>
       </c>
-      <c r="F26" s="71">
+      <c r="F26" s="70">
         <f>-'EB2'!I$7</f>
         <v>194.51650000000001</v>
       </c>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="128" t="str">
+      <c r="H26" s="123"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="123" t="str">
         <f t="shared" si="9"/>
         <v>EXPLPG1</v>
       </c>
-      <c r="K26" s="130" t="str">
+      <c r="K26" s="125" t="str">
         <f t="shared" si="10"/>
         <v>Export of LPG Step 1</v>
       </c>
-      <c r="L26" s="128" t="str">
+      <c r="L26" s="123" t="str">
         <f t="shared" si="6"/>
         <v>PJ</v>
       </c>
-      <c r="M26" s="128"/>
-      <c r="N26" s="128"/>
-      <c r="O26" s="128"/>
-      <c r="P26" s="128"/>
+      <c r="M26" s="123"/>
+      <c r="N26" s="123"/>
+      <c r="O26" s="123"/>
+      <c r="P26" s="123"/>
       <c r="Q26" s="37"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.2">
@@ -17396,32 +17302,32 @@
         <v>GSL</v>
       </c>
       <c r="D27" s="44"/>
-      <c r="E27" s="76">
+      <c r="E27" s="75">
         <f t="shared" si="8"/>
         <v>11.087999999999999</v>
       </c>
-      <c r="F27" s="71">
+      <c r="F27" s="70">
         <f>-'EB2'!J$7</f>
         <v>1500.6420000000001</v>
       </c>
-      <c r="H27" s="128"/>
-      <c r="I27" s="128"/>
-      <c r="J27" s="128" t="str">
+      <c r="H27" s="123"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="123" t="str">
         <f t="shared" si="9"/>
         <v>EXPGSL1</v>
       </c>
-      <c r="K27" s="130" t="str">
+      <c r="K27" s="125" t="str">
         <f t="shared" si="10"/>
         <v>Export of Motor spirit Step 1</v>
       </c>
-      <c r="L27" s="128" t="str">
+      <c r="L27" s="123" t="str">
         <f t="shared" si="6"/>
         <v>PJ</v>
       </c>
-      <c r="M27" s="128"/>
-      <c r="N27" s="128"/>
-      <c r="O27" s="128"/>
-      <c r="P27" s="128"/>
+      <c r="M27" s="123"/>
+      <c r="N27" s="123"/>
+      <c r="O27" s="123"/>
+      <c r="P27" s="123"/>
       <c r="Q27" s="37"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.2">
@@ -17434,32 +17340,32 @@
         <v>NAP</v>
       </c>
       <c r="D28" s="44"/>
-      <c r="E28" s="76">
+      <c r="E28" s="75">
         <f t="shared" si="8"/>
         <v>8.3160000000000007</v>
       </c>
-      <c r="F28" s="71">
+      <c r="F28" s="70">
         <f>-'EB2'!K$7</f>
         <v>400.84</v>
       </c>
-      <c r="H28" s="129"/>
-      <c r="I28" s="129"/>
-      <c r="J28" s="128" t="str">
+      <c r="H28" s="124"/>
+      <c r="I28" s="124"/>
+      <c r="J28" s="123" t="str">
         <f t="shared" si="9"/>
         <v>EXPNAP1</v>
       </c>
-      <c r="K28" s="130" t="str">
+      <c r="K28" s="125" t="str">
         <f t="shared" si="10"/>
         <v>Export of Naphtha Step 1</v>
       </c>
-      <c r="L28" s="128" t="str">
+      <c r="L28" s="123" t="str">
         <f t="shared" si="6"/>
         <v>PJ</v>
       </c>
-      <c r="M28" s="128"/>
-      <c r="N28" s="129"/>
-      <c r="O28" s="129"/>
-      <c r="P28" s="129"/>
+      <c r="M28" s="123"/>
+      <c r="N28" s="124"/>
+      <c r="O28" s="124"/>
+      <c r="P28" s="124"/>
       <c r="Q28" s="37"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.2">
@@ -17472,32 +17378,32 @@
         <v>HFO</v>
       </c>
       <c r="D29" s="44"/>
-      <c r="E29" s="76">
+      <c r="E29" s="75">
         <f t="shared" si="8"/>
         <v>8.3160000000000007</v>
       </c>
-      <c r="F29" s="71">
+      <c r="F29" s="70">
         <f>-'EB2'!L$7</f>
         <v>1239.28</v>
       </c>
-      <c r="H29" s="129"/>
-      <c r="I29" s="129"/>
-      <c r="J29" s="128" t="str">
+      <c r="H29" s="124"/>
+      <c r="I29" s="124"/>
+      <c r="J29" s="123" t="str">
         <f t="shared" si="9"/>
         <v>EXPHFO1</v>
       </c>
-      <c r="K29" s="130" t="str">
+      <c r="K29" s="125" t="str">
         <f t="shared" si="10"/>
         <v>Export of Heavy Fuel Oil Step 1</v>
       </c>
-      <c r="L29" s="128" t="str">
+      <c r="L29" s="123" t="str">
         <f t="shared" si="6"/>
         <v>PJ</v>
       </c>
-      <c r="M29" s="128"/>
-      <c r="N29" s="129"/>
-      <c r="O29" s="129"/>
-      <c r="P29" s="129"/>
+      <c r="M29" s="123"/>
+      <c r="N29" s="124"/>
+      <c r="O29" s="124"/>
+      <c r="P29" s="124"/>
       <c r="Q29" s="37"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.2">
@@ -17510,48 +17416,48 @@
         <v>OPP</v>
       </c>
       <c r="D30" s="44"/>
-      <c r="E30" s="76">
+      <c r="E30" s="75">
         <f>E23*0.99</f>
         <v>8.3160000000000007</v>
       </c>
-      <c r="F30" s="71">
+      <c r="F30" s="70">
         <f>-'EB2'!M$7</f>
         <v>453.036</v>
       </c>
-      <c r="H30" s="129"/>
-      <c r="I30" s="129"/>
-      <c r="J30" s="128" t="str">
+      <c r="H30" s="124"/>
+      <c r="I30" s="124"/>
+      <c r="J30" s="123" t="str">
         <f t="shared" si="9"/>
         <v>EXPOPP1</v>
       </c>
-      <c r="K30" s="130" t="str">
+      <c r="K30" s="125" t="str">
         <f t="shared" si="10"/>
         <v>Export of Other Petroleum Products Step 1</v>
       </c>
-      <c r="L30" s="128" t="str">
+      <c r="L30" s="123" t="str">
         <f t="shared" si="6"/>
         <v>PJ</v>
       </c>
-      <c r="M30" s="129"/>
-      <c r="N30" s="129"/>
-      <c r="O30" s="129"/>
-      <c r="P30" s="129"/>
+      <c r="M30" s="124"/>
+      <c r="N30" s="124"/>
+      <c r="O30" s="124"/>
+      <c r="P30" s="124"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B31" s="44"/>
       <c r="C31" s="44"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="49"/>
+      <c r="E31" s="48"/>
       <c r="F31" s="40"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="67"/>
+      <c r="B35" s="66"/>
       <c r="C35" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B36" s="73"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="1" t="s">
         <v>125</v>
       </c>
@@ -17569,7 +17475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -17631,77 +17537,77 @@
         <f>'EB2'!Y2</f>
         <v>M€2005</v>
       </c>
-      <c r="H2" s="123" t="s">
+      <c r="H2" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
-      <c r="H3" s="125" t="s">
+      <c r="H3" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="126" t="s">
+      <c r="I3" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="125" t="s">
+      <c r="J3" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="125" t="s">
+      <c r="K3" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="125" t="s">
+      <c r="L3" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="125" t="s">
+      <c r="M3" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="125" t="s">
+      <c r="N3" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="125" t="s">
+      <c r="O3" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="125" t="s">
+      <c r="P3" s="120" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
-      <c r="H4" s="117" t="s">
+      <c r="H4" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="117" t="s">
+      <c r="I4" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="117" t="s">
+      <c r="J4" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="117" t="s">
+      <c r="K4" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="117" t="s">
+      <c r="L4" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="117" t="s">
+      <c r="M4" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="117" t="s">
+      <c r="N4" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="117" t="s">
+      <c r="O4" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="117" t="s">
+      <c r="P4" s="112" t="s">
         <v>29</v>
       </c>
       <c r="S4" s="37"/>
@@ -17794,60 +17700,60 @@
     <row r="11" spans="2:22" x14ac:dyDescent="0.2">
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="129"/>
-      <c r="L11" s="129"/>
-      <c r="M11" s="129"/>
-      <c r="N11" s="129"/>
-      <c r="O11" s="129"/>
-      <c r="P11" s="129"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="124"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="124"/>
+      <c r="M11" s="124"/>
+      <c r="N11" s="124"/>
+      <c r="O11" s="124"/>
+      <c r="P11" s="124"/>
       <c r="T11" s="37"/>
       <c r="U11" s="37"/>
       <c r="V11" s="37"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="97" t="s">
+      <c r="E12" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="97" t="s">
+      <c r="F12" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="125" t="s">
+      <c r="H12" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="126" t="s">
+      <c r="I12" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="125" t="s">
+      <c r="J12" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="125" t="s">
+      <c r="K12" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="L12" s="125" t="s">
+      <c r="L12" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="125" t="s">
+      <c r="M12" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="125" t="s">
+      <c r="N12" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="125" t="s">
+      <c r="O12" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="P12" s="125" t="s">
+      <c r="P12" s="120" t="s">
         <v>20</v>
       </c>
       <c r="T12" s="37"/>
@@ -17855,53 +17761,53 @@
       <c r="V12" s="37"/>
     </row>
     <row r="13" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="F13" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="H13" s="117" t="s">
+      <c r="H13" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="117" t="s">
+      <c r="I13" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="117" t="s">
+      <c r="J13" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="117" t="s">
+      <c r="K13" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="117" t="s">
+      <c r="L13" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="117" t="s">
+      <c r="M13" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="117" t="s">
+      <c r="N13" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="O13" s="117" t="s">
+      <c r="O13" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="117" t="s">
+      <c r="P13" s="112" t="s">
         <v>25</v>
       </c>
       <c r="U13" s="37"/>
       <c r="V13" s="37"/>
     </row>
     <row r="14" spans="2:22" s="37" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="52" t="s">
         <v>85</v>
       </c>
       <c r="C14" s="18"/>
@@ -17914,17 +17820,17 @@
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="H14" s="117" t="s">
+      <c r="H14" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="I14" s="117"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="117"/>
-      <c r="N14" s="117"/>
-      <c r="O14" s="117"/>
-      <c r="P14" s="117"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="112"/>
+      <c r="N14" s="112"/>
+      <c r="O14" s="112"/>
+      <c r="P14" s="112"/>
       <c r="Q14" s="35"/>
       <c r="T14" s="35"/>
       <c r="U14" s="35"/>
@@ -17940,37 +17846,37 @@
         <f>C2</f>
         <v>ELC</v>
       </c>
-      <c r="E15" s="80">
+      <c r="E15" s="79">
         <f>Pri_GAS!F12*1.3</f>
         <v>5.3819999999999997</v>
       </c>
-      <c r="F15" s="98">
+      <c r="F15" s="97">
         <f>'EB2'!U6</f>
         <v>583.76</v>
       </c>
-      <c r="H15" s="128" t="str">
+      <c r="H15" s="123" t="str">
         <f>'EB2'!$B$6</f>
         <v>IMP</v>
       </c>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128" t="str">
+      <c r="I15" s="123"/>
+      <c r="J15" s="123" t="str">
         <f>$H$15&amp;C2&amp;1</f>
         <v>IMPELC1</v>
       </c>
-      <c r="K15" s="130" t="str">
+      <c r="K15" s="125" t="str">
         <f>"Import of "&amp;D2&amp; " Step "&amp;RIGHT(J15,1)</f>
         <v>Import of Electricity Step 1</v>
       </c>
-      <c r="L15" s="128" t="str">
+      <c r="L15" s="123" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M15" s="128"/>
-      <c r="N15" s="127" t="s">
+      <c r="M15" s="123"/>
+      <c r="N15" s="122" t="s">
         <v>100</v>
       </c>
-      <c r="O15" s="128"/>
-      <c r="P15" s="128"/>
+      <c r="O15" s="123"/>
+      <c r="P15" s="123"/>
       <c r="T15" s="35"/>
       <c r="U15" s="35"/>
       <c r="V15" s="35"/>
@@ -17985,47 +17891,47 @@
         <v>ELC</v>
       </c>
       <c r="D16" s="44"/>
-      <c r="E16" s="80">
+      <c r="E16" s="79">
         <f>E15*0.99</f>
         <v>5.3281799999999997</v>
       </c>
-      <c r="F16" s="98">
+      <c r="F16" s="97">
         <f>-'EB2'!U$7</f>
         <v>563.40200000000004</v>
       </c>
-      <c r="H16" s="128" t="str">
+      <c r="H16" s="123" t="str">
         <f>'EB2'!B7</f>
         <v>EXP</v>
       </c>
-      <c r="I16" s="129"/>
-      <c r="J16" s="128" t="str">
+      <c r="I16" s="124"/>
+      <c r="J16" s="123" t="str">
         <f>$H$16&amp;C2&amp;1</f>
         <v>EXPELC1</v>
       </c>
-      <c r="K16" s="130" t="str">
+      <c r="K16" s="125" t="str">
         <f>"Export of "&amp;D2&amp; " Step "&amp;RIGHT(J16,1)</f>
         <v>Export of Electricity Step 1</v>
       </c>
-      <c r="L16" s="128" t="str">
+      <c r="L16" s="123" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M16" s="128"/>
-      <c r="N16" s="127" t="s">
+      <c r="M16" s="123"/>
+      <c r="N16" s="122" t="s">
         <v>100</v>
       </c>
-      <c r="O16" s="128"/>
-      <c r="P16" s="128"/>
+      <c r="O16" s="123"/>
+      <c r="P16" s="123"/>
       <c r="S16" s="36"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="79"/>
+      <c r="B21" s="78"/>
       <c r="C21" s="36" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="88"/>
+      <c r="B22" s="87"/>
       <c r="C22" s="36" t="s">
         <v>125</v>
       </c>
